--- a/data/raw/FORESTRYdata/2020/東勢處_v0.xlsx
+++ b/data/raw/FORESTRYdata/2020/東勢處_v0.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22344" windowHeight="9576"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22152" windowHeight="9408" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="梨山" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10777" uniqueCount="1002">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10201" uniqueCount="1002">
   <si>
     <t>林管處</t>
   </si>
@@ -3165,7 +3165,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3178,20 +3178,12 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD8E4BC"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -3493,7 +3485,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U163"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
@@ -22032,8 +22024,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T145"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" topLeftCell="C117" workbookViewId="0">
+      <selection activeCell="H130" sqref="H130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -22128,17 +22120,17 @@
       <c r="E2" t="s">
         <v>604</v>
       </c>
-      <c r="F2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G2" t="s">
-        <v>41</v>
-      </c>
-      <c r="H2" t="s">
-        <v>48</v>
-      </c>
-      <c r="I2" t="s">
-        <v>27</v>
+      <c r="F2" s="8">
+        <v>2020</v>
+      </c>
+      <c r="G2" s="8">
+        <v>3</v>
+      </c>
+      <c r="H2" s="8">
+        <v>18</v>
+      </c>
+      <c r="I2" s="8">
+        <v>1</v>
       </c>
       <c r="J2" t="s">
         <v>605</v>
@@ -22181,17 +22173,17 @@
       <c r="E3" t="s">
         <v>604</v>
       </c>
-      <c r="F3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G3" t="s">
-        <v>41</v>
-      </c>
-      <c r="H3" t="s">
-        <v>48</v>
-      </c>
-      <c r="I3" t="s">
-        <v>27</v>
+      <c r="F3" s="8">
+        <v>2020</v>
+      </c>
+      <c r="G3" s="8">
+        <v>3</v>
+      </c>
+      <c r="H3" s="8">
+        <v>18</v>
+      </c>
+      <c r="I3" s="8">
+        <v>1</v>
       </c>
       <c r="J3" t="s">
         <v>605</v>
@@ -22234,17 +22226,17 @@
       <c r="E4" t="s">
         <v>604</v>
       </c>
-      <c r="F4" t="s">
-        <v>24</v>
-      </c>
-      <c r="G4" t="s">
-        <v>41</v>
-      </c>
-      <c r="H4" t="s">
-        <v>48</v>
-      </c>
-      <c r="I4" t="s">
-        <v>27</v>
+      <c r="F4" s="8">
+        <v>2020</v>
+      </c>
+      <c r="G4" s="8">
+        <v>3</v>
+      </c>
+      <c r="H4" s="8">
+        <v>18</v>
+      </c>
+      <c r="I4" s="8">
+        <v>1</v>
       </c>
       <c r="J4" t="s">
         <v>605</v>
@@ -22287,17 +22279,17 @@
       <c r="E5" t="s">
         <v>604</v>
       </c>
-      <c r="F5" t="s">
-        <v>24</v>
-      </c>
-      <c r="G5" t="s">
-        <v>41</v>
-      </c>
-      <c r="H5" t="s">
-        <v>48</v>
-      </c>
-      <c r="I5" t="s">
-        <v>27</v>
+      <c r="F5" s="8">
+        <v>2020</v>
+      </c>
+      <c r="G5" s="8">
+        <v>3</v>
+      </c>
+      <c r="H5" s="8">
+        <v>18</v>
+      </c>
+      <c r="I5" s="8">
+        <v>1</v>
       </c>
       <c r="J5" t="s">
         <v>605</v>
@@ -22340,17 +22332,17 @@
       <c r="E6" t="s">
         <v>604</v>
       </c>
-      <c r="F6" t="s">
-        <v>24</v>
-      </c>
-      <c r="G6" t="s">
-        <v>41</v>
-      </c>
-      <c r="H6" t="s">
-        <v>48</v>
-      </c>
-      <c r="I6" t="s">
-        <v>27</v>
+      <c r="F6" s="8">
+        <v>2020</v>
+      </c>
+      <c r="G6" s="8">
+        <v>3</v>
+      </c>
+      <c r="H6" s="8">
+        <v>18</v>
+      </c>
+      <c r="I6" s="8">
+        <v>1</v>
       </c>
       <c r="J6" t="s">
         <v>605</v>
@@ -22393,17 +22385,17 @@
       <c r="E7" t="s">
         <v>604</v>
       </c>
-      <c r="F7" t="s">
-        <v>24</v>
-      </c>
-      <c r="G7" t="s">
-        <v>41</v>
-      </c>
-      <c r="H7" t="s">
-        <v>48</v>
-      </c>
-      <c r="I7" t="s">
-        <v>27</v>
+      <c r="F7" s="8">
+        <v>2020</v>
+      </c>
+      <c r="G7" s="8">
+        <v>3</v>
+      </c>
+      <c r="H7" s="8">
+        <v>18</v>
+      </c>
+      <c r="I7" s="8">
+        <v>1</v>
       </c>
       <c r="J7" t="s">
         <v>605</v>
@@ -22446,17 +22438,17 @@
       <c r="E8" t="s">
         <v>604</v>
       </c>
-      <c r="F8" t="s">
-        <v>24</v>
-      </c>
-      <c r="G8" t="s">
-        <v>49</v>
-      </c>
-      <c r="H8" t="s">
-        <v>237</v>
-      </c>
-      <c r="I8" t="s">
-        <v>36</v>
+      <c r="F8" s="8">
+        <v>2020</v>
+      </c>
+      <c r="G8" s="8">
+        <v>5</v>
+      </c>
+      <c r="H8" s="8">
+        <v>14</v>
+      </c>
+      <c r="I8" s="8">
+        <v>2</v>
       </c>
       <c r="J8" t="s">
         <v>605</v>
@@ -22499,17 +22491,17 @@
       <c r="E9" t="s">
         <v>604</v>
       </c>
-      <c r="F9" t="s">
-        <v>24</v>
-      </c>
-      <c r="G9" t="s">
-        <v>49</v>
-      </c>
-      <c r="H9" t="s">
-        <v>237</v>
-      </c>
-      <c r="I9" t="s">
-        <v>36</v>
+      <c r="F9" s="8">
+        <v>2020</v>
+      </c>
+      <c r="G9" s="8">
+        <v>5</v>
+      </c>
+      <c r="H9" s="8">
+        <v>14</v>
+      </c>
+      <c r="I9" s="8">
+        <v>2</v>
       </c>
       <c r="J9" t="s">
         <v>605</v>
@@ -22552,17 +22544,17 @@
       <c r="E10" t="s">
         <v>604</v>
       </c>
-      <c r="F10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G10" t="s">
-        <v>49</v>
-      </c>
-      <c r="H10" t="s">
-        <v>237</v>
-      </c>
-      <c r="I10" t="s">
-        <v>36</v>
+      <c r="F10" s="8">
+        <v>2020</v>
+      </c>
+      <c r="G10" s="8">
+        <v>5</v>
+      </c>
+      <c r="H10" s="8">
+        <v>14</v>
+      </c>
+      <c r="I10" s="8">
+        <v>2</v>
       </c>
       <c r="J10" t="s">
         <v>605</v>
@@ -22605,17 +22597,17 @@
       <c r="E11" t="s">
         <v>604</v>
       </c>
-      <c r="F11" t="s">
-        <v>24</v>
-      </c>
-      <c r="G11" t="s">
-        <v>49</v>
-      </c>
-      <c r="H11" t="s">
-        <v>237</v>
-      </c>
-      <c r="I11" t="s">
-        <v>36</v>
+      <c r="F11" s="8">
+        <v>2020</v>
+      </c>
+      <c r="G11" s="8">
+        <v>5</v>
+      </c>
+      <c r="H11" s="8">
+        <v>14</v>
+      </c>
+      <c r="I11" s="8">
+        <v>2</v>
       </c>
       <c r="J11" t="s">
         <v>605</v>
@@ -22658,17 +22650,17 @@
       <c r="E12" t="s">
         <v>604</v>
       </c>
-      <c r="F12" t="s">
-        <v>24</v>
-      </c>
-      <c r="G12" t="s">
-        <v>49</v>
-      </c>
-      <c r="H12" t="s">
-        <v>237</v>
-      </c>
-      <c r="I12" t="s">
-        <v>36</v>
+      <c r="F12" s="8">
+        <v>2020</v>
+      </c>
+      <c r="G12" s="8">
+        <v>5</v>
+      </c>
+      <c r="H12" s="8">
+        <v>14</v>
+      </c>
+      <c r="I12" s="8">
+        <v>2</v>
       </c>
       <c r="J12" t="s">
         <v>605</v>
@@ -22711,17 +22703,17 @@
       <c r="E13" t="s">
         <v>604</v>
       </c>
-      <c r="F13" t="s">
-        <v>24</v>
-      </c>
-      <c r="G13" t="s">
-        <v>49</v>
-      </c>
-      <c r="H13" t="s">
-        <v>237</v>
-      </c>
-      <c r="I13" t="s">
-        <v>36</v>
+      <c r="F13" s="8">
+        <v>2020</v>
+      </c>
+      <c r="G13" s="8">
+        <v>5</v>
+      </c>
+      <c r="H13" s="8">
+        <v>14</v>
+      </c>
+      <c r="I13" s="8">
+        <v>2</v>
       </c>
       <c r="J13" t="s">
         <v>605</v>
@@ -22767,17 +22759,17 @@
       <c r="E14" s="2" t="s">
         <v>977</v>
       </c>
-      <c r="F14" t="s">
-        <v>24</v>
-      </c>
-      <c r="G14" t="s">
-        <v>25</v>
-      </c>
-      <c r="H14" t="s">
-        <v>128</v>
-      </c>
-      <c r="I14" t="s">
-        <v>27</v>
+      <c r="F14" s="8">
+        <v>2020</v>
+      </c>
+      <c r="G14" s="8">
+        <v>4</v>
+      </c>
+      <c r="H14" s="8">
+        <v>13</v>
+      </c>
+      <c r="I14" s="8">
+        <v>1</v>
       </c>
       <c r="J14" t="s">
         <v>619</v>
@@ -22823,17 +22815,17 @@
       <c r="E15" s="2" t="s">
         <v>977</v>
       </c>
-      <c r="F15" t="s">
-        <v>24</v>
-      </c>
-      <c r="G15" t="s">
-        <v>25</v>
-      </c>
-      <c r="H15" t="s">
-        <v>128</v>
-      </c>
-      <c r="I15" t="s">
-        <v>27</v>
+      <c r="F15" s="8">
+        <v>2020</v>
+      </c>
+      <c r="G15" s="8">
+        <v>4</v>
+      </c>
+      <c r="H15" s="8">
+        <v>13</v>
+      </c>
+      <c r="I15" s="8">
+        <v>1</v>
       </c>
       <c r="J15" t="s">
         <v>619</v>
@@ -22879,17 +22871,17 @@
       <c r="E16" s="2" t="s">
         <v>977</v>
       </c>
-      <c r="F16" t="s">
-        <v>24</v>
-      </c>
-      <c r="G16" t="s">
-        <v>25</v>
-      </c>
-      <c r="H16" t="s">
-        <v>128</v>
-      </c>
-      <c r="I16" t="s">
-        <v>27</v>
+      <c r="F16" s="8">
+        <v>2020</v>
+      </c>
+      <c r="G16" s="8">
+        <v>4</v>
+      </c>
+      <c r="H16" s="8">
+        <v>13</v>
+      </c>
+      <c r="I16" s="8">
+        <v>1</v>
       </c>
       <c r="J16" t="s">
         <v>619</v>
@@ -22935,17 +22927,17 @@
       <c r="E17" s="2" t="s">
         <v>977</v>
       </c>
-      <c r="F17" t="s">
-        <v>24</v>
-      </c>
-      <c r="G17" t="s">
-        <v>25</v>
-      </c>
-      <c r="H17" t="s">
-        <v>128</v>
-      </c>
-      <c r="I17" t="s">
-        <v>27</v>
+      <c r="F17" s="8">
+        <v>2020</v>
+      </c>
+      <c r="G17" s="8">
+        <v>4</v>
+      </c>
+      <c r="H17" s="8">
+        <v>13</v>
+      </c>
+      <c r="I17" s="8">
+        <v>1</v>
       </c>
       <c r="J17" t="s">
         <v>619</v>
@@ -22991,17 +22983,17 @@
       <c r="E18" s="2" t="s">
         <v>977</v>
       </c>
-      <c r="F18" t="s">
-        <v>24</v>
-      </c>
-      <c r="G18" t="s">
-        <v>25</v>
-      </c>
-      <c r="H18" t="s">
-        <v>128</v>
-      </c>
-      <c r="I18" t="s">
-        <v>27</v>
+      <c r="F18" s="8">
+        <v>2020</v>
+      </c>
+      <c r="G18" s="8">
+        <v>4</v>
+      </c>
+      <c r="H18" s="8">
+        <v>13</v>
+      </c>
+      <c r="I18" s="8">
+        <v>1</v>
       </c>
       <c r="J18" t="s">
         <v>619</v>
@@ -23047,17 +23039,17 @@
       <c r="E19" s="2" t="s">
         <v>977</v>
       </c>
-      <c r="F19" t="s">
-        <v>24</v>
-      </c>
-      <c r="G19" t="s">
-        <v>25</v>
-      </c>
-      <c r="H19" t="s">
-        <v>128</v>
-      </c>
-      <c r="I19" t="s">
-        <v>27</v>
+      <c r="F19" s="8">
+        <v>2020</v>
+      </c>
+      <c r="G19" s="8">
+        <v>4</v>
+      </c>
+      <c r="H19" s="8">
+        <v>13</v>
+      </c>
+      <c r="I19" s="8">
+        <v>1</v>
       </c>
       <c r="J19" t="s">
         <v>619</v>
@@ -23100,17 +23092,17 @@
       <c r="E20" t="s">
         <v>778</v>
       </c>
-      <c r="F20" t="s">
-        <v>24</v>
-      </c>
-      <c r="G20" t="s">
-        <v>53</v>
-      </c>
-      <c r="H20" t="s">
-        <v>86</v>
-      </c>
-      <c r="I20" t="s">
-        <v>36</v>
+      <c r="F20" s="8">
+        <v>2020</v>
+      </c>
+      <c r="G20" s="8">
+        <v>6</v>
+      </c>
+      <c r="H20" s="8">
+        <v>16</v>
+      </c>
+      <c r="I20" s="8">
+        <v>2</v>
       </c>
       <c r="J20" t="s">
         <v>619</v>
@@ -23153,17 +23145,17 @@
       <c r="E21" t="s">
         <v>778</v>
       </c>
-      <c r="F21" t="s">
-        <v>24</v>
-      </c>
-      <c r="G21" t="s">
-        <v>53</v>
-      </c>
-      <c r="H21" t="s">
-        <v>86</v>
-      </c>
-      <c r="I21" t="s">
-        <v>36</v>
+      <c r="F21" s="8">
+        <v>2020</v>
+      </c>
+      <c r="G21" s="8">
+        <v>6</v>
+      </c>
+      <c r="H21" s="8">
+        <v>16</v>
+      </c>
+      <c r="I21" s="8">
+        <v>2</v>
       </c>
       <c r="J21" t="s">
         <v>619</v>
@@ -23206,17 +23198,17 @@
       <c r="E22" t="s">
         <v>778</v>
       </c>
-      <c r="F22" t="s">
-        <v>24</v>
-      </c>
-      <c r="G22" t="s">
-        <v>53</v>
-      </c>
-      <c r="H22" t="s">
-        <v>86</v>
-      </c>
-      <c r="I22" t="s">
-        <v>36</v>
+      <c r="F22" s="8">
+        <v>2020</v>
+      </c>
+      <c r="G22" s="8">
+        <v>6</v>
+      </c>
+      <c r="H22" s="8">
+        <v>16</v>
+      </c>
+      <c r="I22" s="8">
+        <v>2</v>
       </c>
       <c r="J22" t="s">
         <v>619</v>
@@ -23259,17 +23251,17 @@
       <c r="E23" t="s">
         <v>778</v>
       </c>
-      <c r="F23" t="s">
-        <v>24</v>
-      </c>
-      <c r="G23" t="s">
-        <v>53</v>
-      </c>
-      <c r="H23" t="s">
-        <v>86</v>
-      </c>
-      <c r="I23" t="s">
-        <v>36</v>
+      <c r="F23" s="8">
+        <v>2020</v>
+      </c>
+      <c r="G23" s="8">
+        <v>6</v>
+      </c>
+      <c r="H23" s="8">
+        <v>16</v>
+      </c>
+      <c r="I23" s="8">
+        <v>2</v>
       </c>
       <c r="J23" t="s">
         <v>619</v>
@@ -23312,17 +23304,17 @@
       <c r="E24" t="s">
         <v>778</v>
       </c>
-      <c r="F24" t="s">
-        <v>24</v>
-      </c>
-      <c r="G24" t="s">
-        <v>53</v>
-      </c>
-      <c r="H24" t="s">
-        <v>86</v>
-      </c>
-      <c r="I24" t="s">
-        <v>36</v>
+      <c r="F24" s="8">
+        <v>2020</v>
+      </c>
+      <c r="G24" s="8">
+        <v>6</v>
+      </c>
+      <c r="H24" s="8">
+        <v>16</v>
+      </c>
+      <c r="I24" s="8">
+        <v>2</v>
       </c>
       <c r="J24" t="s">
         <v>619</v>
@@ -23365,17 +23357,17 @@
       <c r="E25" t="s">
         <v>778</v>
       </c>
-      <c r="F25" t="s">
-        <v>24</v>
-      </c>
-      <c r="G25" t="s">
-        <v>53</v>
-      </c>
-      <c r="H25" t="s">
-        <v>86</v>
-      </c>
-      <c r="I25" t="s">
-        <v>36</v>
+      <c r="F25" s="8">
+        <v>2020</v>
+      </c>
+      <c r="G25" s="8">
+        <v>6</v>
+      </c>
+      <c r="H25" s="8">
+        <v>16</v>
+      </c>
+      <c r="I25" s="8">
+        <v>2</v>
       </c>
       <c r="J25" t="s">
         <v>619</v>
@@ -23421,17 +23413,17 @@
       <c r="E26" s="2" t="s">
         <v>978</v>
       </c>
-      <c r="F26" t="s">
-        <v>24</v>
-      </c>
-      <c r="G26" t="s">
-        <v>25</v>
-      </c>
-      <c r="H26" t="s">
-        <v>39</v>
-      </c>
-      <c r="I26" t="s">
-        <v>27</v>
+      <c r="F26" s="8">
+        <v>2020</v>
+      </c>
+      <c r="G26" s="8">
+        <v>4</v>
+      </c>
+      <c r="H26" s="8">
+        <v>9</v>
+      </c>
+      <c r="I26" s="8">
+        <v>1</v>
       </c>
       <c r="J26" t="s">
         <v>633</v>
@@ -23477,17 +23469,17 @@
       <c r="E27" s="2" t="s">
         <v>978</v>
       </c>
-      <c r="F27" t="s">
-        <v>24</v>
-      </c>
-      <c r="G27" t="s">
-        <v>25</v>
-      </c>
-      <c r="H27" t="s">
-        <v>39</v>
-      </c>
-      <c r="I27" t="s">
-        <v>27</v>
+      <c r="F27" s="8">
+        <v>2020</v>
+      </c>
+      <c r="G27" s="8">
+        <v>4</v>
+      </c>
+      <c r="H27" s="8">
+        <v>9</v>
+      </c>
+      <c r="I27" s="8">
+        <v>1</v>
       </c>
       <c r="J27" t="s">
         <v>633</v>
@@ -23536,17 +23528,17 @@
       <c r="E28" s="2" t="s">
         <v>978</v>
       </c>
-      <c r="F28" t="s">
-        <v>24</v>
-      </c>
-      <c r="G28" t="s">
-        <v>25</v>
-      </c>
-      <c r="H28" t="s">
-        <v>39</v>
-      </c>
-      <c r="I28" t="s">
-        <v>27</v>
+      <c r="F28" s="8">
+        <v>2020</v>
+      </c>
+      <c r="G28" s="8">
+        <v>4</v>
+      </c>
+      <c r="H28" s="8">
+        <v>9</v>
+      </c>
+      <c r="I28" s="8">
+        <v>1</v>
       </c>
       <c r="J28" t="s">
         <v>633</v>
@@ -23592,17 +23584,17 @@
       <c r="E29" s="2" t="s">
         <v>978</v>
       </c>
-      <c r="F29" t="s">
-        <v>24</v>
-      </c>
-      <c r="G29" t="s">
-        <v>25</v>
-      </c>
-      <c r="H29" t="s">
-        <v>39</v>
-      </c>
-      <c r="I29" t="s">
-        <v>27</v>
+      <c r="F29" s="8">
+        <v>2020</v>
+      </c>
+      <c r="G29" s="8">
+        <v>4</v>
+      </c>
+      <c r="H29" s="8">
+        <v>9</v>
+      </c>
+      <c r="I29" s="8">
+        <v>1</v>
       </c>
       <c r="J29" t="s">
         <v>633</v>
@@ -23648,17 +23640,17 @@
       <c r="E30" s="2" t="s">
         <v>978</v>
       </c>
-      <c r="F30" t="s">
-        <v>24</v>
-      </c>
-      <c r="G30" t="s">
-        <v>25</v>
-      </c>
-      <c r="H30" t="s">
-        <v>39</v>
-      </c>
-      <c r="I30" t="s">
-        <v>27</v>
+      <c r="F30" s="8">
+        <v>2020</v>
+      </c>
+      <c r="G30" s="8">
+        <v>4</v>
+      </c>
+      <c r="H30" s="8">
+        <v>9</v>
+      </c>
+      <c r="I30" s="8">
+        <v>1</v>
       </c>
       <c r="J30" t="s">
         <v>633</v>
@@ -23704,17 +23696,17 @@
       <c r="E31" s="2" t="s">
         <v>978</v>
       </c>
-      <c r="F31" t="s">
-        <v>24</v>
-      </c>
-      <c r="G31" t="s">
-        <v>25</v>
-      </c>
-      <c r="H31" t="s">
-        <v>39</v>
-      </c>
-      <c r="I31" t="s">
-        <v>27</v>
+      <c r="F31" s="8">
+        <v>2020</v>
+      </c>
+      <c r="G31" s="8">
+        <v>4</v>
+      </c>
+      <c r="H31" s="8">
+        <v>9</v>
+      </c>
+      <c r="I31" s="8">
+        <v>1</v>
       </c>
       <c r="J31" t="s">
         <v>633</v>
@@ -23757,17 +23749,17 @@
       <c r="E32" t="s">
         <v>779</v>
       </c>
-      <c r="F32" t="s">
-        <v>24</v>
-      </c>
-      <c r="G32" t="s">
-        <v>53</v>
-      </c>
-      <c r="H32" t="s">
-        <v>41</v>
-      </c>
-      <c r="I32" t="s">
-        <v>36</v>
+      <c r="F32" s="8">
+        <v>2020</v>
+      </c>
+      <c r="G32" s="8">
+        <v>6</v>
+      </c>
+      <c r="H32" s="8">
+        <v>3</v>
+      </c>
+      <c r="I32" s="8">
+        <v>2</v>
       </c>
       <c r="J32" t="s">
         <v>619</v>
@@ -23810,17 +23802,17 @@
       <c r="E33" t="s">
         <v>779</v>
       </c>
-      <c r="F33" t="s">
-        <v>24</v>
-      </c>
-      <c r="G33" t="s">
-        <v>53</v>
-      </c>
-      <c r="H33" t="s">
-        <v>41</v>
-      </c>
-      <c r="I33" t="s">
-        <v>36</v>
+      <c r="F33" s="8">
+        <v>2020</v>
+      </c>
+      <c r="G33" s="8">
+        <v>6</v>
+      </c>
+      <c r="H33" s="8">
+        <v>3</v>
+      </c>
+      <c r="I33" s="8">
+        <v>2</v>
       </c>
       <c r="J33" t="s">
         <v>619</v>
@@ -23863,17 +23855,17 @@
       <c r="E34" t="s">
         <v>779</v>
       </c>
-      <c r="F34" t="s">
-        <v>24</v>
-      </c>
-      <c r="G34" t="s">
-        <v>53</v>
-      </c>
-      <c r="H34" t="s">
-        <v>41</v>
-      </c>
-      <c r="I34" t="s">
-        <v>36</v>
+      <c r="F34" s="8">
+        <v>2020</v>
+      </c>
+      <c r="G34" s="8">
+        <v>6</v>
+      </c>
+      <c r="H34" s="8">
+        <v>3</v>
+      </c>
+      <c r="I34" s="8">
+        <v>2</v>
       </c>
       <c r="J34" t="s">
         <v>619</v>
@@ -23916,17 +23908,17 @@
       <c r="E35" t="s">
         <v>779</v>
       </c>
-      <c r="F35" t="s">
-        <v>24</v>
-      </c>
-      <c r="G35" t="s">
-        <v>53</v>
-      </c>
-      <c r="H35" t="s">
-        <v>41</v>
-      </c>
-      <c r="I35" t="s">
-        <v>36</v>
+      <c r="F35" s="8">
+        <v>2020</v>
+      </c>
+      <c r="G35" s="8">
+        <v>6</v>
+      </c>
+      <c r="H35" s="8">
+        <v>3</v>
+      </c>
+      <c r="I35" s="8">
+        <v>2</v>
       </c>
       <c r="J35" t="s">
         <v>619</v>
@@ -23969,17 +23961,17 @@
       <c r="E36" t="s">
         <v>779</v>
       </c>
-      <c r="F36" t="s">
-        <v>24</v>
-      </c>
-      <c r="G36" t="s">
-        <v>53</v>
-      </c>
-      <c r="H36" t="s">
-        <v>41</v>
-      </c>
-      <c r="I36" t="s">
-        <v>36</v>
+      <c r="F36" s="8">
+        <v>2020</v>
+      </c>
+      <c r="G36" s="8">
+        <v>6</v>
+      </c>
+      <c r="H36" s="8">
+        <v>3</v>
+      </c>
+      <c r="I36" s="8">
+        <v>2</v>
       </c>
       <c r="J36" t="s">
         <v>619</v>
@@ -24022,17 +24014,17 @@
       <c r="E37" t="s">
         <v>779</v>
       </c>
-      <c r="F37" t="s">
-        <v>24</v>
-      </c>
-      <c r="G37" t="s">
-        <v>53</v>
-      </c>
-      <c r="H37" t="s">
-        <v>41</v>
-      </c>
-      <c r="I37" t="s">
-        <v>36</v>
+      <c r="F37" s="8">
+        <v>2020</v>
+      </c>
+      <c r="G37" s="8">
+        <v>6</v>
+      </c>
+      <c r="H37" s="8">
+        <v>3</v>
+      </c>
+      <c r="I37" s="8">
+        <v>2</v>
       </c>
       <c r="J37" t="s">
         <v>619</v>
@@ -24075,17 +24067,17 @@
       <c r="E38" t="s">
         <v>648</v>
       </c>
-      <c r="F38" t="s">
-        <v>24</v>
-      </c>
-      <c r="G38" t="s">
-        <v>41</v>
-      </c>
-      <c r="H38" t="s">
-        <v>148</v>
-      </c>
-      <c r="I38" t="s">
-        <v>27</v>
+      <c r="F38" s="8">
+        <v>2020</v>
+      </c>
+      <c r="G38" s="8">
+        <v>3</v>
+      </c>
+      <c r="H38" s="8">
+        <v>20</v>
+      </c>
+      <c r="I38" s="8">
+        <v>1</v>
       </c>
       <c r="J38" t="s">
         <v>649</v>
@@ -24128,17 +24120,17 @@
       <c r="E39" t="s">
         <v>648</v>
       </c>
-      <c r="F39" t="s">
-        <v>24</v>
-      </c>
-      <c r="G39" t="s">
-        <v>41</v>
-      </c>
-      <c r="H39" t="s">
-        <v>148</v>
-      </c>
-      <c r="I39" t="s">
-        <v>27</v>
+      <c r="F39" s="8">
+        <v>2020</v>
+      </c>
+      <c r="G39" s="8">
+        <v>3</v>
+      </c>
+      <c r="H39" s="8">
+        <v>20</v>
+      </c>
+      <c r="I39" s="8">
+        <v>1</v>
       </c>
       <c r="J39" t="s">
         <v>649</v>
@@ -24181,17 +24173,17 @@
       <c r="E40" t="s">
         <v>648</v>
       </c>
-      <c r="F40" t="s">
-        <v>24</v>
-      </c>
-      <c r="G40" t="s">
-        <v>41</v>
-      </c>
-      <c r="H40" t="s">
-        <v>148</v>
-      </c>
-      <c r="I40" t="s">
-        <v>27</v>
+      <c r="F40" s="8">
+        <v>2020</v>
+      </c>
+      <c r="G40" s="8">
+        <v>3</v>
+      </c>
+      <c r="H40" s="8">
+        <v>20</v>
+      </c>
+      <c r="I40" s="8">
+        <v>1</v>
       </c>
       <c r="J40" t="s">
         <v>649</v>
@@ -24234,17 +24226,17 @@
       <c r="E41" t="s">
         <v>648</v>
       </c>
-      <c r="F41" t="s">
-        <v>24</v>
-      </c>
-      <c r="G41" t="s">
-        <v>41</v>
-      </c>
-      <c r="H41" t="s">
-        <v>148</v>
-      </c>
-      <c r="I41" t="s">
-        <v>27</v>
+      <c r="F41" s="8">
+        <v>2020</v>
+      </c>
+      <c r="G41" s="8">
+        <v>3</v>
+      </c>
+      <c r="H41" s="8">
+        <v>20</v>
+      </c>
+      <c r="I41" s="8">
+        <v>1</v>
       </c>
       <c r="J41" t="s">
         <v>649</v>
@@ -24287,17 +24279,17 @@
       <c r="E42" t="s">
         <v>648</v>
       </c>
-      <c r="F42" t="s">
-        <v>24</v>
-      </c>
-      <c r="G42" t="s">
-        <v>41</v>
-      </c>
-      <c r="H42" t="s">
-        <v>148</v>
-      </c>
-      <c r="I42" t="s">
-        <v>27</v>
+      <c r="F42" s="8">
+        <v>2020</v>
+      </c>
+      <c r="G42" s="8">
+        <v>3</v>
+      </c>
+      <c r="H42" s="8">
+        <v>20</v>
+      </c>
+      <c r="I42" s="8">
+        <v>1</v>
       </c>
       <c r="J42" t="s">
         <v>649</v>
@@ -24340,17 +24332,17 @@
       <c r="E43" t="s">
         <v>648</v>
       </c>
-      <c r="F43" t="s">
-        <v>24</v>
-      </c>
-      <c r="G43" t="s">
-        <v>41</v>
-      </c>
-      <c r="H43" t="s">
-        <v>148</v>
-      </c>
-      <c r="I43" t="s">
-        <v>27</v>
+      <c r="F43" s="8">
+        <v>2020</v>
+      </c>
+      <c r="G43" s="8">
+        <v>3</v>
+      </c>
+      <c r="H43" s="8">
+        <v>20</v>
+      </c>
+      <c r="I43" s="8">
+        <v>1</v>
       </c>
       <c r="J43" t="s">
         <v>649</v>
@@ -24393,17 +24385,17 @@
       <c r="E44" t="s">
         <v>648</v>
       </c>
-      <c r="F44" t="s">
-        <v>24</v>
-      </c>
-      <c r="G44" t="s">
-        <v>49</v>
-      </c>
-      <c r="H44" t="s">
-        <v>65</v>
-      </c>
-      <c r="I44" t="s">
-        <v>36</v>
+      <c r="F44" s="8">
+        <v>2020</v>
+      </c>
+      <c r="G44" s="8">
+        <v>5</v>
+      </c>
+      <c r="H44" s="8">
+        <v>19</v>
+      </c>
+      <c r="I44" s="8">
+        <v>2</v>
       </c>
       <c r="J44" t="s">
         <v>649</v>
@@ -24446,17 +24438,17 @@
       <c r="E45" t="s">
         <v>648</v>
       </c>
-      <c r="F45" t="s">
-        <v>24</v>
-      </c>
-      <c r="G45" t="s">
-        <v>49</v>
-      </c>
-      <c r="H45" t="s">
-        <v>65</v>
-      </c>
-      <c r="I45" t="s">
-        <v>36</v>
+      <c r="F45" s="8">
+        <v>2020</v>
+      </c>
+      <c r="G45" s="8">
+        <v>5</v>
+      </c>
+      <c r="H45" s="8">
+        <v>19</v>
+      </c>
+      <c r="I45" s="8">
+        <v>2</v>
       </c>
       <c r="J45" t="s">
         <v>649</v>
@@ -24499,17 +24491,17 @@
       <c r="E46" t="s">
         <v>648</v>
       </c>
-      <c r="F46" t="s">
-        <v>24</v>
-      </c>
-      <c r="G46" t="s">
-        <v>49</v>
-      </c>
-      <c r="H46" t="s">
-        <v>65</v>
-      </c>
-      <c r="I46" t="s">
-        <v>36</v>
+      <c r="F46" s="8">
+        <v>2020</v>
+      </c>
+      <c r="G46" s="8">
+        <v>5</v>
+      </c>
+      <c r="H46" s="8">
+        <v>19</v>
+      </c>
+      <c r="I46" s="8">
+        <v>2</v>
       </c>
       <c r="J46" t="s">
         <v>649</v>
@@ -24552,17 +24544,17 @@
       <c r="E47" t="s">
         <v>648</v>
       </c>
-      <c r="F47" t="s">
-        <v>24</v>
-      </c>
-      <c r="G47" t="s">
-        <v>49</v>
-      </c>
-      <c r="H47" t="s">
-        <v>65</v>
-      </c>
-      <c r="I47" t="s">
-        <v>36</v>
+      <c r="F47" s="8">
+        <v>2020</v>
+      </c>
+      <c r="G47" s="8">
+        <v>5</v>
+      </c>
+      <c r="H47" s="8">
+        <v>19</v>
+      </c>
+      <c r="I47" s="8">
+        <v>2</v>
       </c>
       <c r="J47" t="s">
         <v>649</v>
@@ -24605,17 +24597,17 @@
       <c r="E48" t="s">
         <v>648</v>
       </c>
-      <c r="F48" t="s">
-        <v>24</v>
-      </c>
-      <c r="G48" t="s">
-        <v>49</v>
-      </c>
-      <c r="H48" t="s">
-        <v>65</v>
-      </c>
-      <c r="I48" t="s">
-        <v>36</v>
+      <c r="F48" s="8">
+        <v>2020</v>
+      </c>
+      <c r="G48" s="8">
+        <v>5</v>
+      </c>
+      <c r="H48" s="8">
+        <v>19</v>
+      </c>
+      <c r="I48" s="8">
+        <v>2</v>
       </c>
       <c r="J48" t="s">
         <v>649</v>
@@ -24658,17 +24650,17 @@
       <c r="E49" t="s">
         <v>648</v>
       </c>
-      <c r="F49" t="s">
-        <v>24</v>
-      </c>
-      <c r="G49" t="s">
-        <v>49</v>
-      </c>
-      <c r="H49" t="s">
-        <v>65</v>
-      </c>
-      <c r="I49" t="s">
-        <v>36</v>
+      <c r="F49" s="8">
+        <v>2020</v>
+      </c>
+      <c r="G49" s="8">
+        <v>5</v>
+      </c>
+      <c r="H49" s="8">
+        <v>19</v>
+      </c>
+      <c r="I49" s="8">
+        <v>2</v>
       </c>
       <c r="J49" t="s">
         <v>649</v>
@@ -24711,17 +24703,17 @@
       <c r="E50" t="s">
         <v>663</v>
       </c>
-      <c r="F50" t="s">
-        <v>24</v>
-      </c>
-      <c r="G50" t="s">
-        <v>41</v>
-      </c>
-      <c r="H50" t="s">
-        <v>48</v>
-      </c>
-      <c r="I50" t="s">
-        <v>27</v>
+      <c r="F50" s="8">
+        <v>2020</v>
+      </c>
+      <c r="G50" s="8">
+        <v>3</v>
+      </c>
+      <c r="H50" s="8">
+        <v>18</v>
+      </c>
+      <c r="I50" s="8">
+        <v>1</v>
       </c>
       <c r="J50" t="s">
         <v>664</v>
@@ -24764,17 +24756,17 @@
       <c r="E51" t="s">
         <v>663</v>
       </c>
-      <c r="F51" t="s">
-        <v>24</v>
-      </c>
-      <c r="G51" t="s">
-        <v>41</v>
-      </c>
-      <c r="H51" t="s">
-        <v>48</v>
-      </c>
-      <c r="I51" t="s">
-        <v>27</v>
+      <c r="F51" s="8">
+        <v>2020</v>
+      </c>
+      <c r="G51" s="8">
+        <v>3</v>
+      </c>
+      <c r="H51" s="8">
+        <v>18</v>
+      </c>
+      <c r="I51" s="8">
+        <v>1</v>
       </c>
       <c r="J51" t="s">
         <v>664</v>
@@ -24817,17 +24809,17 @@
       <c r="E52" t="s">
         <v>663</v>
       </c>
-      <c r="F52" t="s">
-        <v>24</v>
-      </c>
-      <c r="G52" t="s">
-        <v>41</v>
-      </c>
-      <c r="H52" t="s">
-        <v>48</v>
-      </c>
-      <c r="I52" t="s">
-        <v>27</v>
+      <c r="F52" s="8">
+        <v>2020</v>
+      </c>
+      <c r="G52" s="8">
+        <v>3</v>
+      </c>
+      <c r="H52" s="8">
+        <v>18</v>
+      </c>
+      <c r="I52" s="8">
+        <v>1</v>
       </c>
       <c r="J52" t="s">
         <v>664</v>
@@ -24870,17 +24862,17 @@
       <c r="E53" t="s">
         <v>663</v>
       </c>
-      <c r="F53" t="s">
-        <v>24</v>
-      </c>
-      <c r="G53" t="s">
-        <v>41</v>
-      </c>
-      <c r="H53" t="s">
-        <v>48</v>
-      </c>
-      <c r="I53" t="s">
-        <v>27</v>
+      <c r="F53" s="8">
+        <v>2020</v>
+      </c>
+      <c r="G53" s="8">
+        <v>3</v>
+      </c>
+      <c r="H53" s="8">
+        <v>18</v>
+      </c>
+      <c r="I53" s="8">
+        <v>1</v>
       </c>
       <c r="J53" t="s">
         <v>664</v>
@@ -24926,17 +24918,17 @@
       <c r="E54" t="s">
         <v>663</v>
       </c>
-      <c r="F54" t="s">
-        <v>24</v>
-      </c>
-      <c r="G54" t="s">
-        <v>41</v>
-      </c>
-      <c r="H54" t="s">
-        <v>48</v>
-      </c>
-      <c r="I54" t="s">
-        <v>27</v>
+      <c r="F54" s="8">
+        <v>2020</v>
+      </c>
+      <c r="G54" s="8">
+        <v>3</v>
+      </c>
+      <c r="H54" s="8">
+        <v>18</v>
+      </c>
+      <c r="I54" s="8">
+        <v>1</v>
       </c>
       <c r="J54" t="s">
         <v>664</v>
@@ -24979,17 +24971,17 @@
       <c r="E55" t="s">
         <v>663</v>
       </c>
-      <c r="F55" t="s">
-        <v>24</v>
-      </c>
-      <c r="G55" t="s">
-        <v>41</v>
-      </c>
-      <c r="H55" t="s">
-        <v>48</v>
-      </c>
-      <c r="I55" t="s">
-        <v>27</v>
+      <c r="F55" s="8">
+        <v>2020</v>
+      </c>
+      <c r="G55" s="8">
+        <v>3</v>
+      </c>
+      <c r="H55" s="8">
+        <v>18</v>
+      </c>
+      <c r="I55" s="8">
+        <v>1</v>
       </c>
       <c r="J55" t="s">
         <v>664</v>
@@ -25032,17 +25024,17 @@
       <c r="E56" t="s">
         <v>663</v>
       </c>
-      <c r="F56" t="s">
-        <v>24</v>
-      </c>
-      <c r="G56" t="s">
-        <v>49</v>
-      </c>
-      <c r="H56" t="s">
-        <v>65</v>
-      </c>
-      <c r="I56" t="s">
-        <v>36</v>
+      <c r="F56" s="8">
+        <v>2020</v>
+      </c>
+      <c r="G56" s="8">
+        <v>5</v>
+      </c>
+      <c r="H56" s="8">
+        <v>19</v>
+      </c>
+      <c r="I56" s="8">
+        <v>2</v>
       </c>
       <c r="J56" t="s">
         <v>664</v>
@@ -25085,17 +25077,17 @@
       <c r="E57" t="s">
         <v>663</v>
       </c>
-      <c r="F57" t="s">
-        <v>24</v>
-      </c>
-      <c r="G57" t="s">
-        <v>49</v>
-      </c>
-      <c r="H57" t="s">
-        <v>65</v>
-      </c>
-      <c r="I57" t="s">
-        <v>36</v>
+      <c r="F57" s="8">
+        <v>2020</v>
+      </c>
+      <c r="G57" s="8">
+        <v>5</v>
+      </c>
+      <c r="H57" s="8">
+        <v>19</v>
+      </c>
+      <c r="I57" s="8">
+        <v>2</v>
       </c>
       <c r="J57" t="s">
         <v>664</v>
@@ -25138,17 +25130,17 @@
       <c r="E58" t="s">
         <v>663</v>
       </c>
-      <c r="F58" t="s">
-        <v>24</v>
-      </c>
-      <c r="G58" t="s">
-        <v>49</v>
-      </c>
-      <c r="H58" t="s">
-        <v>65</v>
-      </c>
-      <c r="I58" t="s">
-        <v>36</v>
+      <c r="F58" s="8">
+        <v>2020</v>
+      </c>
+      <c r="G58" s="8">
+        <v>5</v>
+      </c>
+      <c r="H58" s="8">
+        <v>19</v>
+      </c>
+      <c r="I58" s="8">
+        <v>2</v>
       </c>
       <c r="J58" t="s">
         <v>664</v>
@@ -25191,17 +25183,17 @@
       <c r="E59" t="s">
         <v>663</v>
       </c>
-      <c r="F59" t="s">
-        <v>24</v>
-      </c>
-      <c r="G59" t="s">
-        <v>49</v>
-      </c>
-      <c r="H59" t="s">
-        <v>65</v>
-      </c>
-      <c r="I59" t="s">
-        <v>36</v>
+      <c r="F59" s="8">
+        <v>2020</v>
+      </c>
+      <c r="G59" s="8">
+        <v>5</v>
+      </c>
+      <c r="H59" s="8">
+        <v>19</v>
+      </c>
+      <c r="I59" s="8">
+        <v>2</v>
       </c>
       <c r="J59" t="s">
         <v>664</v>
@@ -25244,17 +25236,17 @@
       <c r="E60" t="s">
         <v>663</v>
       </c>
-      <c r="F60" t="s">
-        <v>24</v>
-      </c>
-      <c r="G60" t="s">
-        <v>49</v>
-      </c>
-      <c r="H60" t="s">
-        <v>65</v>
-      </c>
-      <c r="I60" t="s">
-        <v>36</v>
+      <c r="F60" s="8">
+        <v>2020</v>
+      </c>
+      <c r="G60" s="8">
+        <v>5</v>
+      </c>
+      <c r="H60" s="8">
+        <v>19</v>
+      </c>
+      <c r="I60" s="8">
+        <v>2</v>
       </c>
       <c r="J60" t="s">
         <v>664</v>
@@ -25297,17 +25289,17 @@
       <c r="E61" t="s">
         <v>663</v>
       </c>
-      <c r="F61" t="s">
-        <v>24</v>
-      </c>
-      <c r="G61" t="s">
-        <v>49</v>
-      </c>
-      <c r="H61" t="s">
-        <v>65</v>
-      </c>
-      <c r="I61" t="s">
-        <v>36</v>
+      <c r="F61" s="8">
+        <v>2020</v>
+      </c>
+      <c r="G61" s="8">
+        <v>5</v>
+      </c>
+      <c r="H61" s="8">
+        <v>19</v>
+      </c>
+      <c r="I61" s="8">
+        <v>2</v>
       </c>
       <c r="J61" t="s">
         <v>664</v>
@@ -25350,17 +25342,17 @@
       <c r="E62" t="s">
         <v>678</v>
       </c>
-      <c r="F62" t="s">
-        <v>24</v>
-      </c>
-      <c r="G62" t="s">
-        <v>41</v>
-      </c>
-      <c r="H62" t="s">
-        <v>48</v>
-      </c>
-      <c r="I62" t="s">
-        <v>27</v>
+      <c r="F62" s="8">
+        <v>2020</v>
+      </c>
+      <c r="G62" s="8">
+        <v>3</v>
+      </c>
+      <c r="H62" s="8">
+        <v>18</v>
+      </c>
+      <c r="I62" s="8">
+        <v>1</v>
       </c>
       <c r="J62" t="s">
         <v>664</v>
@@ -25403,17 +25395,17 @@
       <c r="E63" t="s">
         <v>678</v>
       </c>
-      <c r="F63" t="s">
-        <v>24</v>
-      </c>
-      <c r="G63" t="s">
-        <v>41</v>
-      </c>
-      <c r="H63" t="s">
-        <v>48</v>
-      </c>
-      <c r="I63" t="s">
-        <v>27</v>
+      <c r="F63" s="8">
+        <v>2020</v>
+      </c>
+      <c r="G63" s="8">
+        <v>3</v>
+      </c>
+      <c r="H63" s="8">
+        <v>18</v>
+      </c>
+      <c r="I63" s="8">
+        <v>1</v>
       </c>
       <c r="J63" t="s">
         <v>664</v>
@@ -25456,17 +25448,17 @@
       <c r="E64" t="s">
         <v>678</v>
       </c>
-      <c r="F64" t="s">
-        <v>24</v>
-      </c>
-      <c r="G64" t="s">
-        <v>41</v>
-      </c>
-      <c r="H64" t="s">
-        <v>48</v>
-      </c>
-      <c r="I64" t="s">
-        <v>27</v>
+      <c r="F64" s="8">
+        <v>2020</v>
+      </c>
+      <c r="G64" s="8">
+        <v>3</v>
+      </c>
+      <c r="H64" s="8">
+        <v>18</v>
+      </c>
+      <c r="I64" s="8">
+        <v>1</v>
       </c>
       <c r="J64" t="s">
         <v>664</v>
@@ -25512,17 +25504,17 @@
       <c r="E65" t="s">
         <v>678</v>
       </c>
-      <c r="F65" t="s">
-        <v>24</v>
-      </c>
-      <c r="G65" t="s">
-        <v>41</v>
-      </c>
-      <c r="H65" t="s">
-        <v>48</v>
-      </c>
-      <c r="I65" t="s">
-        <v>27</v>
+      <c r="F65" s="8">
+        <v>2020</v>
+      </c>
+      <c r="G65" s="8">
+        <v>3</v>
+      </c>
+      <c r="H65" s="8">
+        <v>18</v>
+      </c>
+      <c r="I65" s="8">
+        <v>1</v>
       </c>
       <c r="J65" t="s">
         <v>664</v>
@@ -25565,17 +25557,17 @@
       <c r="E66" t="s">
         <v>678</v>
       </c>
-      <c r="F66" t="s">
-        <v>24</v>
-      </c>
-      <c r="G66" t="s">
-        <v>41</v>
-      </c>
-      <c r="H66" t="s">
-        <v>48</v>
-      </c>
-      <c r="I66" t="s">
-        <v>27</v>
+      <c r="F66" s="8">
+        <v>2020</v>
+      </c>
+      <c r="G66" s="8">
+        <v>3</v>
+      </c>
+      <c r="H66" s="8">
+        <v>18</v>
+      </c>
+      <c r="I66" s="8">
+        <v>1</v>
       </c>
       <c r="J66" t="s">
         <v>664</v>
@@ -25621,17 +25613,17 @@
       <c r="E67" t="s">
         <v>678</v>
       </c>
-      <c r="F67" t="s">
-        <v>24</v>
-      </c>
-      <c r="G67" t="s">
-        <v>41</v>
-      </c>
-      <c r="H67" t="s">
-        <v>48</v>
-      </c>
-      <c r="I67" t="s">
-        <v>27</v>
+      <c r="F67" s="8">
+        <v>2020</v>
+      </c>
+      <c r="G67" s="8">
+        <v>3</v>
+      </c>
+      <c r="H67" s="8">
+        <v>18</v>
+      </c>
+      <c r="I67" s="8">
+        <v>1</v>
       </c>
       <c r="J67" t="s">
         <v>664</v>
@@ -25674,17 +25666,17 @@
       <c r="E68" t="s">
         <v>678</v>
       </c>
-      <c r="F68" t="s">
-        <v>24</v>
-      </c>
-      <c r="G68" t="s">
-        <v>49</v>
-      </c>
-      <c r="H68" t="s">
-        <v>65</v>
-      </c>
-      <c r="I68" t="s">
-        <v>36</v>
+      <c r="F68" s="8">
+        <v>2020</v>
+      </c>
+      <c r="G68" s="8">
+        <v>5</v>
+      </c>
+      <c r="H68" s="8">
+        <v>19</v>
+      </c>
+      <c r="I68" s="8">
+        <v>2</v>
       </c>
       <c r="J68" t="s">
         <v>664</v>
@@ -25727,17 +25719,17 @@
       <c r="E69" t="s">
         <v>678</v>
       </c>
-      <c r="F69" t="s">
-        <v>24</v>
-      </c>
-      <c r="G69" t="s">
-        <v>49</v>
-      </c>
-      <c r="H69" t="s">
-        <v>65</v>
-      </c>
-      <c r="I69" t="s">
-        <v>36</v>
+      <c r="F69" s="8">
+        <v>2020</v>
+      </c>
+      <c r="G69" s="8">
+        <v>5</v>
+      </c>
+      <c r="H69" s="8">
+        <v>19</v>
+      </c>
+      <c r="I69" s="8">
+        <v>2</v>
       </c>
       <c r="J69" t="s">
         <v>664</v>
@@ -25780,17 +25772,17 @@
       <c r="E70" t="s">
         <v>678</v>
       </c>
-      <c r="F70" t="s">
-        <v>24</v>
-      </c>
-      <c r="G70" t="s">
-        <v>49</v>
-      </c>
-      <c r="H70" t="s">
-        <v>65</v>
-      </c>
-      <c r="I70" t="s">
-        <v>36</v>
+      <c r="F70" s="8">
+        <v>2020</v>
+      </c>
+      <c r="G70" s="8">
+        <v>5</v>
+      </c>
+      <c r="H70" s="8">
+        <v>19</v>
+      </c>
+      <c r="I70" s="8">
+        <v>2</v>
       </c>
       <c r="J70" t="s">
         <v>664</v>
@@ -25833,17 +25825,17 @@
       <c r="E71" t="s">
         <v>678</v>
       </c>
-      <c r="F71" t="s">
-        <v>24</v>
-      </c>
-      <c r="G71" t="s">
-        <v>49</v>
-      </c>
-      <c r="H71" t="s">
-        <v>65</v>
-      </c>
-      <c r="I71" t="s">
-        <v>36</v>
+      <c r="F71" s="8">
+        <v>2020</v>
+      </c>
+      <c r="G71" s="8">
+        <v>5</v>
+      </c>
+      <c r="H71" s="8">
+        <v>19</v>
+      </c>
+      <c r="I71" s="8">
+        <v>2</v>
       </c>
       <c r="J71" t="s">
         <v>664</v>
@@ -25886,17 +25878,17 @@
       <c r="E72" t="s">
         <v>678</v>
       </c>
-      <c r="F72" t="s">
-        <v>24</v>
-      </c>
-      <c r="G72" t="s">
-        <v>49</v>
-      </c>
-      <c r="H72" t="s">
-        <v>65</v>
-      </c>
-      <c r="I72" t="s">
-        <v>36</v>
+      <c r="F72" s="8">
+        <v>2020</v>
+      </c>
+      <c r="G72" s="8">
+        <v>5</v>
+      </c>
+      <c r="H72" s="8">
+        <v>19</v>
+      </c>
+      <c r="I72" s="8">
+        <v>2</v>
       </c>
       <c r="J72" t="s">
         <v>664</v>
@@ -25939,17 +25931,17 @@
       <c r="E73" t="s">
         <v>678</v>
       </c>
-      <c r="F73" t="s">
-        <v>24</v>
-      </c>
-      <c r="G73" t="s">
-        <v>49</v>
-      </c>
-      <c r="H73" t="s">
-        <v>65</v>
-      </c>
-      <c r="I73" t="s">
-        <v>36</v>
+      <c r="F73" s="8">
+        <v>2020</v>
+      </c>
+      <c r="G73" s="8">
+        <v>5</v>
+      </c>
+      <c r="H73" s="8">
+        <v>19</v>
+      </c>
+      <c r="I73" s="8">
+        <v>2</v>
       </c>
       <c r="J73" t="s">
         <v>664</v>
@@ -25992,17 +25984,17 @@
       <c r="E74" t="s">
         <v>693</v>
       </c>
-      <c r="F74" t="s">
-        <v>24</v>
-      </c>
-      <c r="G74" t="s">
-        <v>41</v>
-      </c>
-      <c r="H74" t="s">
-        <v>148</v>
-      </c>
-      <c r="I74" t="s">
-        <v>27</v>
+      <c r="F74" s="8">
+        <v>2020</v>
+      </c>
+      <c r="G74" s="8">
+        <v>3</v>
+      </c>
+      <c r="H74" s="8">
+        <v>20</v>
+      </c>
+      <c r="I74" s="8">
+        <v>1</v>
       </c>
       <c r="J74" t="s">
         <v>649</v>
@@ -26045,17 +26037,17 @@
       <c r="E75" t="s">
         <v>693</v>
       </c>
-      <c r="F75" t="s">
-        <v>24</v>
-      </c>
-      <c r="G75" t="s">
-        <v>41</v>
-      </c>
-      <c r="H75" t="s">
-        <v>148</v>
-      </c>
-      <c r="I75" t="s">
-        <v>27</v>
+      <c r="F75" s="8">
+        <v>2020</v>
+      </c>
+      <c r="G75" s="8">
+        <v>3</v>
+      </c>
+      <c r="H75" s="8">
+        <v>20</v>
+      </c>
+      <c r="I75" s="8">
+        <v>1</v>
       </c>
       <c r="J75" t="s">
         <v>649</v>
@@ -26098,17 +26090,17 @@
       <c r="E76" t="s">
         <v>693</v>
       </c>
-      <c r="F76" t="s">
-        <v>24</v>
-      </c>
-      <c r="G76" t="s">
-        <v>41</v>
-      </c>
-      <c r="H76" t="s">
-        <v>178</v>
-      </c>
-      <c r="I76" t="s">
-        <v>27</v>
+      <c r="F76" s="8">
+        <v>2020</v>
+      </c>
+      <c r="G76" s="8">
+        <v>3</v>
+      </c>
+      <c r="H76">
+        <v>20</v>
+      </c>
+      <c r="I76" s="8">
+        <v>1</v>
       </c>
       <c r="J76" t="s">
         <v>649</v>
@@ -26154,17 +26146,17 @@
       <c r="E77" t="s">
         <v>693</v>
       </c>
-      <c r="F77" t="s">
-        <v>24</v>
-      </c>
-      <c r="G77" t="s">
-        <v>41</v>
-      </c>
-      <c r="H77" t="s">
-        <v>148</v>
-      </c>
-      <c r="I77" t="s">
-        <v>27</v>
+      <c r="F77" s="8">
+        <v>2020</v>
+      </c>
+      <c r="G77" s="8">
+        <v>3</v>
+      </c>
+      <c r="H77" s="8">
+        <v>20</v>
+      </c>
+      <c r="I77" s="8">
+        <v>1</v>
       </c>
       <c r="J77" t="s">
         <v>649</v>
@@ -26207,17 +26199,17 @@
       <c r="E78" t="s">
         <v>693</v>
       </c>
-      <c r="F78" t="s">
-        <v>24</v>
-      </c>
-      <c r="G78" t="s">
-        <v>41</v>
-      </c>
-      <c r="H78" t="s">
-        <v>148</v>
-      </c>
-      <c r="I78" t="s">
-        <v>27</v>
+      <c r="F78" s="8">
+        <v>2020</v>
+      </c>
+      <c r="G78" s="8">
+        <v>3</v>
+      </c>
+      <c r="H78" s="8">
+        <v>20</v>
+      </c>
+      <c r="I78" s="8">
+        <v>1</v>
       </c>
       <c r="J78" t="s">
         <v>649</v>
@@ -26260,17 +26252,17 @@
       <c r="E79" t="s">
         <v>693</v>
       </c>
-      <c r="F79" t="s">
-        <v>24</v>
-      </c>
-      <c r="G79" t="s">
-        <v>41</v>
-      </c>
-      <c r="H79" t="s">
-        <v>148</v>
-      </c>
-      <c r="I79" t="s">
-        <v>27</v>
+      <c r="F79" s="8">
+        <v>2020</v>
+      </c>
+      <c r="G79" s="8">
+        <v>3</v>
+      </c>
+      <c r="H79" s="8">
+        <v>20</v>
+      </c>
+      <c r="I79" s="8">
+        <v>1</v>
       </c>
       <c r="J79" t="s">
         <v>649</v>
@@ -26313,17 +26305,17 @@
       <c r="E80" t="s">
         <v>693</v>
       </c>
-      <c r="F80" t="s">
-        <v>24</v>
-      </c>
-      <c r="G80" t="s">
-        <v>49</v>
-      </c>
-      <c r="H80" t="s">
-        <v>65</v>
-      </c>
-      <c r="I80" t="s">
-        <v>36</v>
+      <c r="F80" s="8">
+        <v>2020</v>
+      </c>
+      <c r="G80" s="8">
+        <v>5</v>
+      </c>
+      <c r="H80" s="8">
+        <v>19</v>
+      </c>
+      <c r="I80" s="8">
+        <v>2</v>
       </c>
       <c r="J80" t="s">
         <v>649</v>
@@ -26366,17 +26358,17 @@
       <c r="E81" t="s">
         <v>693</v>
       </c>
-      <c r="F81" t="s">
-        <v>24</v>
-      </c>
-      <c r="G81" t="s">
-        <v>49</v>
-      </c>
-      <c r="H81" t="s">
-        <v>65</v>
-      </c>
-      <c r="I81" t="s">
-        <v>36</v>
+      <c r="F81" s="8">
+        <v>2020</v>
+      </c>
+      <c r="G81" s="8">
+        <v>5</v>
+      </c>
+      <c r="H81" s="8">
+        <v>19</v>
+      </c>
+      <c r="I81" s="8">
+        <v>2</v>
       </c>
       <c r="J81" t="s">
         <v>649</v>
@@ -26419,17 +26411,17 @@
       <c r="E82" t="s">
         <v>693</v>
       </c>
-      <c r="F82" t="s">
-        <v>24</v>
-      </c>
-      <c r="G82" t="s">
-        <v>49</v>
-      </c>
-      <c r="H82" t="s">
-        <v>65</v>
-      </c>
-      <c r="I82" t="s">
-        <v>36</v>
+      <c r="F82" s="8">
+        <v>2020</v>
+      </c>
+      <c r="G82" s="8">
+        <v>5</v>
+      </c>
+      <c r="H82" s="8">
+        <v>19</v>
+      </c>
+      <c r="I82" s="8">
+        <v>2</v>
       </c>
       <c r="J82" t="s">
         <v>649</v>
@@ -26472,17 +26464,17 @@
       <c r="E83" t="s">
         <v>693</v>
       </c>
-      <c r="F83" t="s">
-        <v>24</v>
-      </c>
-      <c r="G83" t="s">
-        <v>49</v>
-      </c>
-      <c r="H83" t="s">
-        <v>65</v>
-      </c>
-      <c r="I83" t="s">
-        <v>36</v>
+      <c r="F83" s="8">
+        <v>2020</v>
+      </c>
+      <c r="G83" s="8">
+        <v>5</v>
+      </c>
+      <c r="H83" s="8">
+        <v>19</v>
+      </c>
+      <c r="I83" s="8">
+        <v>2</v>
       </c>
       <c r="J83" t="s">
         <v>649</v>
@@ -26525,17 +26517,17 @@
       <c r="E84" t="s">
         <v>693</v>
       </c>
-      <c r="F84" t="s">
-        <v>24</v>
-      </c>
-      <c r="G84" t="s">
-        <v>49</v>
-      </c>
-      <c r="H84" t="s">
-        <v>65</v>
-      </c>
-      <c r="I84" t="s">
-        <v>36</v>
+      <c r="F84" s="8">
+        <v>2020</v>
+      </c>
+      <c r="G84" s="8">
+        <v>5</v>
+      </c>
+      <c r="H84" s="8">
+        <v>19</v>
+      </c>
+      <c r="I84" s="8">
+        <v>2</v>
       </c>
       <c r="J84" t="s">
         <v>649</v>
@@ -26578,17 +26570,17 @@
       <c r="E85" t="s">
         <v>693</v>
       </c>
-      <c r="F85" t="s">
-        <v>24</v>
-      </c>
-      <c r="G85" t="s">
-        <v>49</v>
-      </c>
-      <c r="H85" t="s">
-        <v>65</v>
-      </c>
-      <c r="I85" t="s">
-        <v>36</v>
+      <c r="F85" s="8">
+        <v>2020</v>
+      </c>
+      <c r="G85" s="8">
+        <v>5</v>
+      </c>
+      <c r="H85" s="8">
+        <v>19</v>
+      </c>
+      <c r="I85" s="8">
+        <v>2</v>
       </c>
       <c r="J85" t="s">
         <v>649</v>
@@ -26634,17 +26626,17 @@
       <c r="E86" s="2" t="s">
         <v>979</v>
       </c>
-      <c r="F86" t="s">
-        <v>24</v>
-      </c>
-      <c r="G86" t="s">
-        <v>25</v>
-      </c>
-      <c r="H86" t="s">
-        <v>237</v>
-      </c>
-      <c r="I86" t="s">
-        <v>27</v>
+      <c r="F86" s="8">
+        <v>2020</v>
+      </c>
+      <c r="G86" s="8">
+        <v>4</v>
+      </c>
+      <c r="H86" s="8">
+        <v>14</v>
+      </c>
+      <c r="I86" s="8">
+        <v>1</v>
       </c>
       <c r="J86" t="s">
         <v>708</v>
@@ -26690,17 +26682,17 @@
       <c r="E87" s="2" t="s">
         <v>979</v>
       </c>
-      <c r="F87" t="s">
-        <v>24</v>
-      </c>
-      <c r="G87" t="s">
-        <v>25</v>
-      </c>
-      <c r="H87" t="s">
-        <v>237</v>
-      </c>
-      <c r="I87" t="s">
-        <v>27</v>
+      <c r="F87" s="8">
+        <v>2020</v>
+      </c>
+      <c r="G87" s="8">
+        <v>4</v>
+      </c>
+      <c r="H87" s="8">
+        <v>14</v>
+      </c>
+      <c r="I87" s="8">
+        <v>1</v>
       </c>
       <c r="J87" t="s">
         <v>708</v>
@@ -26746,17 +26738,17 @@
       <c r="E88" s="2" t="s">
         <v>979</v>
       </c>
-      <c r="F88" t="s">
-        <v>24</v>
-      </c>
-      <c r="G88" t="s">
-        <v>25</v>
-      </c>
-      <c r="H88" t="s">
-        <v>237</v>
-      </c>
-      <c r="I88" t="s">
-        <v>27</v>
+      <c r="F88" s="8">
+        <v>2020</v>
+      </c>
+      <c r="G88" s="8">
+        <v>4</v>
+      </c>
+      <c r="H88" s="8">
+        <v>14</v>
+      </c>
+      <c r="I88" s="8">
+        <v>1</v>
       </c>
       <c r="J88" t="s">
         <v>708</v>
@@ -26802,17 +26794,17 @@
       <c r="E89" s="2" t="s">
         <v>979</v>
       </c>
-      <c r="F89" t="s">
-        <v>24</v>
-      </c>
-      <c r="G89" t="s">
-        <v>25</v>
-      </c>
-      <c r="H89" t="s">
-        <v>237</v>
-      </c>
-      <c r="I89" t="s">
-        <v>27</v>
+      <c r="F89" s="8">
+        <v>2020</v>
+      </c>
+      <c r="G89" s="8">
+        <v>4</v>
+      </c>
+      <c r="H89" s="8">
+        <v>14</v>
+      </c>
+      <c r="I89" s="8">
+        <v>1</v>
       </c>
       <c r="J89" t="s">
         <v>708</v>
@@ -26858,17 +26850,17 @@
       <c r="E90" s="2" t="s">
         <v>979</v>
       </c>
-      <c r="F90" t="s">
-        <v>24</v>
-      </c>
-      <c r="G90" t="s">
-        <v>25</v>
-      </c>
-      <c r="H90" t="s">
-        <v>237</v>
-      </c>
-      <c r="I90" t="s">
-        <v>27</v>
+      <c r="F90" s="8">
+        <v>2020</v>
+      </c>
+      <c r="G90" s="8">
+        <v>4</v>
+      </c>
+      <c r="H90" s="8">
+        <v>14</v>
+      </c>
+      <c r="I90" s="8">
+        <v>1</v>
       </c>
       <c r="J90" t="s">
         <v>708</v>
@@ -26914,17 +26906,17 @@
       <c r="E91" s="2" t="s">
         <v>979</v>
       </c>
-      <c r="F91" t="s">
-        <v>24</v>
-      </c>
-      <c r="G91" t="s">
-        <v>25</v>
-      </c>
-      <c r="H91" t="s">
-        <v>237</v>
-      </c>
-      <c r="I91" t="s">
-        <v>27</v>
+      <c r="F91" s="8">
+        <v>2020</v>
+      </c>
+      <c r="G91" s="8">
+        <v>4</v>
+      </c>
+      <c r="H91" s="8">
+        <v>14</v>
+      </c>
+      <c r="I91" s="8">
+        <v>1</v>
       </c>
       <c r="J91" t="s">
         <v>708</v>
@@ -26967,17 +26959,17 @@
       <c r="E92" t="s">
         <v>780</v>
       </c>
-      <c r="F92" t="s">
-        <v>24</v>
-      </c>
-      <c r="G92" t="s">
-        <v>53</v>
-      </c>
-      <c r="H92" t="s">
-        <v>26</v>
-      </c>
-      <c r="I92" t="s">
-        <v>36</v>
+      <c r="F92" s="8">
+        <v>2020</v>
+      </c>
+      <c r="G92" s="8">
+        <v>6</v>
+      </c>
+      <c r="H92" s="8">
+        <v>15</v>
+      </c>
+      <c r="I92" s="8">
+        <v>2</v>
       </c>
       <c r="J92" t="s">
         <v>708</v>
@@ -27020,17 +27012,17 @@
       <c r="E93" t="s">
         <v>780</v>
       </c>
-      <c r="F93" t="s">
-        <v>24</v>
-      </c>
-      <c r="G93" t="s">
-        <v>53</v>
-      </c>
-      <c r="H93" t="s">
-        <v>26</v>
-      </c>
-      <c r="I93" t="s">
-        <v>36</v>
+      <c r="F93" s="8">
+        <v>2020</v>
+      </c>
+      <c r="G93" s="8">
+        <v>6</v>
+      </c>
+      <c r="H93" s="8">
+        <v>15</v>
+      </c>
+      <c r="I93" s="8">
+        <v>2</v>
       </c>
       <c r="J93" t="s">
         <v>708</v>
@@ -27073,17 +27065,17 @@
       <c r="E94" t="s">
         <v>780</v>
       </c>
-      <c r="F94" t="s">
-        <v>24</v>
-      </c>
-      <c r="G94" t="s">
-        <v>53</v>
-      </c>
-      <c r="H94" t="s">
-        <v>26</v>
-      </c>
-      <c r="I94" t="s">
-        <v>36</v>
+      <c r="F94" s="8">
+        <v>2020</v>
+      </c>
+      <c r="G94" s="8">
+        <v>6</v>
+      </c>
+      <c r="H94" s="8">
+        <v>15</v>
+      </c>
+      <c r="I94" s="8">
+        <v>2</v>
       </c>
       <c r="J94" t="s">
         <v>708</v>
@@ -27126,17 +27118,17 @@
       <c r="E95" t="s">
         <v>780</v>
       </c>
-      <c r="F95" t="s">
-        <v>24</v>
-      </c>
-      <c r="G95" t="s">
-        <v>53</v>
-      </c>
-      <c r="H95" t="s">
-        <v>26</v>
-      </c>
-      <c r="I95" t="s">
-        <v>36</v>
+      <c r="F95" s="8">
+        <v>2020</v>
+      </c>
+      <c r="G95" s="8">
+        <v>6</v>
+      </c>
+      <c r="H95" s="8">
+        <v>15</v>
+      </c>
+      <c r="I95" s="8">
+        <v>2</v>
       </c>
       <c r="J95" t="s">
         <v>708</v>
@@ -27179,17 +27171,17 @@
       <c r="E96" t="s">
         <v>780</v>
       </c>
-      <c r="F96" t="s">
-        <v>24</v>
-      </c>
-      <c r="G96" t="s">
-        <v>53</v>
-      </c>
-      <c r="H96" t="s">
-        <v>26</v>
-      </c>
-      <c r="I96" t="s">
-        <v>36</v>
+      <c r="F96" s="8">
+        <v>2020</v>
+      </c>
+      <c r="G96" s="8">
+        <v>6</v>
+      </c>
+      <c r="H96" s="8">
+        <v>15</v>
+      </c>
+      <c r="I96" s="8">
+        <v>2</v>
       </c>
       <c r="J96" t="s">
         <v>708</v>
@@ -27232,17 +27224,17 @@
       <c r="E97" t="s">
         <v>780</v>
       </c>
-      <c r="F97" t="s">
-        <v>24</v>
-      </c>
-      <c r="G97" t="s">
-        <v>53</v>
-      </c>
-      <c r="H97" t="s">
-        <v>26</v>
-      </c>
-      <c r="I97" t="s">
-        <v>36</v>
+      <c r="F97" s="8">
+        <v>2020</v>
+      </c>
+      <c r="G97" s="8">
+        <v>6</v>
+      </c>
+      <c r="H97" s="8">
+        <v>15</v>
+      </c>
+      <c r="I97" s="8">
+        <v>2</v>
       </c>
       <c r="J97" t="s">
         <v>708</v>
@@ -27285,17 +27277,17 @@
       <c r="E98" t="s">
         <v>722</v>
       </c>
-      <c r="F98" t="s">
-        <v>24</v>
-      </c>
-      <c r="G98" t="s">
-        <v>41</v>
-      </c>
-      <c r="H98" t="s">
-        <v>148</v>
-      </c>
-      <c r="I98" t="s">
-        <v>27</v>
+      <c r="F98" s="8">
+        <v>2020</v>
+      </c>
+      <c r="G98" s="8">
+        <v>3</v>
+      </c>
+      <c r="H98" s="8">
+        <v>20</v>
+      </c>
+      <c r="I98" s="8">
+        <v>1</v>
       </c>
       <c r="J98" t="s">
         <v>723</v>
@@ -27338,17 +27330,17 @@
       <c r="E99" t="s">
         <v>722</v>
       </c>
-      <c r="F99" t="s">
-        <v>24</v>
-      </c>
-      <c r="G99" t="s">
-        <v>41</v>
-      </c>
-      <c r="H99" t="s">
-        <v>148</v>
-      </c>
-      <c r="I99" t="s">
-        <v>27</v>
+      <c r="F99" s="8">
+        <v>2020</v>
+      </c>
+      <c r="G99" s="8">
+        <v>3</v>
+      </c>
+      <c r="H99" s="8">
+        <v>20</v>
+      </c>
+      <c r="I99" s="8">
+        <v>1</v>
       </c>
       <c r="J99" t="s">
         <v>723</v>
@@ -27391,17 +27383,17 @@
       <c r="E100" t="s">
         <v>722</v>
       </c>
-      <c r="F100" t="s">
-        <v>24</v>
-      </c>
-      <c r="G100" t="s">
-        <v>41</v>
-      </c>
-      <c r="H100" t="s">
-        <v>148</v>
-      </c>
-      <c r="I100" t="s">
-        <v>27</v>
+      <c r="F100" s="8">
+        <v>2020</v>
+      </c>
+      <c r="G100" s="8">
+        <v>3</v>
+      </c>
+      <c r="H100" s="8">
+        <v>20</v>
+      </c>
+      <c r="I100" s="8">
+        <v>1</v>
       </c>
       <c r="J100" t="s">
         <v>723</v>
@@ -27444,17 +27436,17 @@
       <c r="E101" t="s">
         <v>722</v>
       </c>
-      <c r="F101" t="s">
-        <v>24</v>
-      </c>
-      <c r="G101" t="s">
-        <v>41</v>
-      </c>
-      <c r="H101" t="s">
-        <v>148</v>
-      </c>
-      <c r="I101" t="s">
-        <v>27</v>
+      <c r="F101" s="8">
+        <v>2020</v>
+      </c>
+      <c r="G101" s="8">
+        <v>3</v>
+      </c>
+      <c r="H101" s="8">
+        <v>20</v>
+      </c>
+      <c r="I101" s="8">
+        <v>1</v>
       </c>
       <c r="J101" t="s">
         <v>723</v>
@@ -27497,17 +27489,17 @@
       <c r="E102" t="s">
         <v>722</v>
       </c>
-      <c r="F102" t="s">
-        <v>24</v>
-      </c>
-      <c r="G102" t="s">
-        <v>41</v>
-      </c>
-      <c r="H102" t="s">
-        <v>148</v>
-      </c>
-      <c r="I102" t="s">
-        <v>27</v>
+      <c r="F102" s="8">
+        <v>2020</v>
+      </c>
+      <c r="G102" s="8">
+        <v>3</v>
+      </c>
+      <c r="H102" s="8">
+        <v>20</v>
+      </c>
+      <c r="I102" s="8">
+        <v>1</v>
       </c>
       <c r="J102" t="s">
         <v>723</v>
@@ -27550,17 +27542,17 @@
       <c r="E103" t="s">
         <v>722</v>
       </c>
-      <c r="F103" t="s">
-        <v>24</v>
-      </c>
-      <c r="G103" t="s">
-        <v>41</v>
-      </c>
-      <c r="H103" t="s">
-        <v>148</v>
-      </c>
-      <c r="I103" t="s">
-        <v>27</v>
+      <c r="F103" s="8">
+        <v>2020</v>
+      </c>
+      <c r="G103" s="8">
+        <v>3</v>
+      </c>
+      <c r="H103" s="8">
+        <v>20</v>
+      </c>
+      <c r="I103" s="8">
+        <v>1</v>
       </c>
       <c r="J103" t="s">
         <v>723</v>
@@ -27606,17 +27598,17 @@
       <c r="E104" s="2" t="s">
         <v>982</v>
       </c>
-      <c r="F104" t="s">
-        <v>24</v>
-      </c>
-      <c r="G104" t="s">
-        <v>49</v>
-      </c>
-      <c r="H104" t="s">
-        <v>237</v>
-      </c>
-      <c r="I104" t="s">
-        <v>36</v>
+      <c r="F104" s="8">
+        <v>2020</v>
+      </c>
+      <c r="G104" s="8">
+        <v>5</v>
+      </c>
+      <c r="H104" s="8">
+        <v>14</v>
+      </c>
+      <c r="I104" s="8">
+        <v>2</v>
       </c>
       <c r="J104" t="s">
         <v>723</v>
@@ -27662,17 +27654,17 @@
       <c r="E105" s="2" t="s">
         <v>982</v>
       </c>
-      <c r="F105" t="s">
-        <v>24</v>
-      </c>
-      <c r="G105" t="s">
-        <v>49</v>
-      </c>
-      <c r="H105" t="s">
-        <v>237</v>
-      </c>
-      <c r="I105" t="s">
-        <v>36</v>
+      <c r="F105" s="8">
+        <v>2020</v>
+      </c>
+      <c r="G105" s="8">
+        <v>5</v>
+      </c>
+      <c r="H105" s="8">
+        <v>14</v>
+      </c>
+      <c r="I105" s="8">
+        <v>2</v>
       </c>
       <c r="J105" t="s">
         <v>723</v>
@@ -27718,17 +27710,17 @@
       <c r="E106" s="2" t="s">
         <v>982</v>
       </c>
-      <c r="F106" t="s">
-        <v>24</v>
-      </c>
-      <c r="G106" t="s">
-        <v>49</v>
-      </c>
-      <c r="H106" t="s">
-        <v>237</v>
-      </c>
-      <c r="I106" t="s">
-        <v>36</v>
+      <c r="F106" s="8">
+        <v>2020</v>
+      </c>
+      <c r="G106" s="8">
+        <v>5</v>
+      </c>
+      <c r="H106" s="8">
+        <v>14</v>
+      </c>
+      <c r="I106" s="8">
+        <v>2</v>
       </c>
       <c r="J106" t="s">
         <v>723</v>
@@ -27774,17 +27766,17 @@
       <c r="E107" s="2" t="s">
         <v>982</v>
       </c>
-      <c r="F107" t="s">
-        <v>24</v>
-      </c>
-      <c r="G107" t="s">
-        <v>49</v>
-      </c>
-      <c r="H107" t="s">
-        <v>237</v>
-      </c>
-      <c r="I107" t="s">
-        <v>36</v>
+      <c r="F107" s="8">
+        <v>2020</v>
+      </c>
+      <c r="G107" s="8">
+        <v>5</v>
+      </c>
+      <c r="H107" s="8">
+        <v>14</v>
+      </c>
+      <c r="I107" s="8">
+        <v>2</v>
       </c>
       <c r="J107" t="s">
         <v>723</v>
@@ -27830,17 +27822,17 @@
       <c r="E108" s="2" t="s">
         <v>982</v>
       </c>
-      <c r="F108" t="s">
-        <v>24</v>
-      </c>
-      <c r="G108" t="s">
-        <v>49</v>
-      </c>
-      <c r="H108" t="s">
-        <v>237</v>
-      </c>
-      <c r="I108" t="s">
-        <v>36</v>
+      <c r="F108" s="8">
+        <v>2020</v>
+      </c>
+      <c r="G108" s="8">
+        <v>5</v>
+      </c>
+      <c r="H108" s="8">
+        <v>14</v>
+      </c>
+      <c r="I108" s="8">
+        <v>2</v>
       </c>
       <c r="J108" t="s">
         <v>723</v>
@@ -27886,17 +27878,17 @@
       <c r="E109" s="2" t="s">
         <v>982</v>
       </c>
-      <c r="F109" t="s">
-        <v>24</v>
-      </c>
-      <c r="G109" t="s">
-        <v>49</v>
-      </c>
-      <c r="H109" t="s">
-        <v>237</v>
-      </c>
-      <c r="I109" t="s">
-        <v>36</v>
+      <c r="F109" s="8">
+        <v>2020</v>
+      </c>
+      <c r="G109" s="8">
+        <v>5</v>
+      </c>
+      <c r="H109" s="8">
+        <v>14</v>
+      </c>
+      <c r="I109" s="8">
+        <v>2</v>
       </c>
       <c r="J109" t="s">
         <v>723</v>
@@ -27942,17 +27934,17 @@
       <c r="E110" s="2" t="s">
         <v>980</v>
       </c>
-      <c r="F110" t="s">
-        <v>24</v>
-      </c>
-      <c r="G110" t="s">
-        <v>25</v>
-      </c>
-      <c r="H110" t="s">
-        <v>112</v>
-      </c>
-      <c r="I110" t="s">
-        <v>27</v>
+      <c r="F110" s="8">
+        <v>2020</v>
+      </c>
+      <c r="G110" s="8">
+        <v>4</v>
+      </c>
+      <c r="H110" s="8">
+        <v>7</v>
+      </c>
+      <c r="I110" s="8">
+        <v>1</v>
       </c>
       <c r="J110" t="s">
         <v>737</v>
@@ -27998,17 +27990,17 @@
       <c r="E111" s="2" t="s">
         <v>980</v>
       </c>
-      <c r="F111" t="s">
-        <v>24</v>
-      </c>
-      <c r="G111" t="s">
-        <v>25</v>
-      </c>
-      <c r="H111" t="s">
-        <v>112</v>
-      </c>
-      <c r="I111" t="s">
-        <v>27</v>
+      <c r="F111" s="8">
+        <v>2020</v>
+      </c>
+      <c r="G111" s="8">
+        <v>4</v>
+      </c>
+      <c r="H111" s="8">
+        <v>7</v>
+      </c>
+      <c r="I111" s="8">
+        <v>1</v>
       </c>
       <c r="J111" t="s">
         <v>737</v>
@@ -28054,17 +28046,17 @@
       <c r="E112" s="2" t="s">
         <v>980</v>
       </c>
-      <c r="F112" t="s">
-        <v>24</v>
-      </c>
-      <c r="G112" t="s">
-        <v>25</v>
-      </c>
-      <c r="H112" t="s">
-        <v>112</v>
-      </c>
-      <c r="I112" t="s">
-        <v>27</v>
+      <c r="F112" s="8">
+        <v>2020</v>
+      </c>
+      <c r="G112" s="8">
+        <v>4</v>
+      </c>
+      <c r="H112" s="8">
+        <v>7</v>
+      </c>
+      <c r="I112" s="8">
+        <v>1</v>
       </c>
       <c r="J112" t="s">
         <v>737</v>
@@ -28113,17 +28105,17 @@
       <c r="E113" s="2" t="s">
         <v>980</v>
       </c>
-      <c r="F113" t="s">
-        <v>24</v>
-      </c>
-      <c r="G113" t="s">
-        <v>25</v>
-      </c>
-      <c r="H113" t="s">
-        <v>112</v>
-      </c>
-      <c r="I113" t="s">
-        <v>27</v>
+      <c r="F113" s="8">
+        <v>2020</v>
+      </c>
+      <c r="G113" s="8">
+        <v>4</v>
+      </c>
+      <c r="H113" s="8">
+        <v>7</v>
+      </c>
+      <c r="I113" s="8">
+        <v>1</v>
       </c>
       <c r="J113" t="s">
         <v>737</v>
@@ -28169,17 +28161,17 @@
       <c r="E114" s="2" t="s">
         <v>980</v>
       </c>
-      <c r="F114" t="s">
-        <v>24</v>
-      </c>
-      <c r="G114" t="s">
-        <v>25</v>
-      </c>
-      <c r="H114" t="s">
-        <v>112</v>
-      </c>
-      <c r="I114" t="s">
-        <v>27</v>
+      <c r="F114" s="8">
+        <v>2020</v>
+      </c>
+      <c r="G114" s="8">
+        <v>4</v>
+      </c>
+      <c r="H114" s="8">
+        <v>7</v>
+      </c>
+      <c r="I114" s="8">
+        <v>1</v>
       </c>
       <c r="J114" t="s">
         <v>737</v>
@@ -28225,17 +28217,17 @@
       <c r="E115" s="2" t="s">
         <v>980</v>
       </c>
-      <c r="F115" t="s">
-        <v>24</v>
-      </c>
-      <c r="G115" t="s">
-        <v>25</v>
-      </c>
-      <c r="H115" t="s">
-        <v>112</v>
-      </c>
-      <c r="I115" t="s">
-        <v>27</v>
+      <c r="F115" s="8">
+        <v>2020</v>
+      </c>
+      <c r="G115" s="8">
+        <v>4</v>
+      </c>
+      <c r="H115" s="8">
+        <v>7</v>
+      </c>
+      <c r="I115" s="8">
+        <v>1</v>
       </c>
       <c r="J115" t="s">
         <v>737</v>
@@ -28278,17 +28270,17 @@
       <c r="E116" t="s">
         <v>781</v>
       </c>
-      <c r="F116" t="s">
-        <v>24</v>
-      </c>
-      <c r="G116" t="s">
-        <v>53</v>
-      </c>
-      <c r="H116" t="s">
-        <v>86</v>
-      </c>
-      <c r="I116" t="s">
-        <v>36</v>
+      <c r="F116" s="8">
+        <v>2020</v>
+      </c>
+      <c r="G116" s="8">
+        <v>6</v>
+      </c>
+      <c r="H116" s="8">
+        <v>16</v>
+      </c>
+      <c r="I116" s="8">
+        <v>2</v>
       </c>
       <c r="J116" t="s">
         <v>737</v>
@@ -28331,17 +28323,17 @@
       <c r="E117" t="s">
         <v>781</v>
       </c>
-      <c r="F117" t="s">
-        <v>24</v>
-      </c>
-      <c r="G117" t="s">
-        <v>53</v>
-      </c>
-      <c r="H117" t="s">
-        <v>86</v>
-      </c>
-      <c r="I117" t="s">
-        <v>36</v>
+      <c r="F117" s="8">
+        <v>2020</v>
+      </c>
+      <c r="G117" s="8">
+        <v>6</v>
+      </c>
+      <c r="H117" s="8">
+        <v>16</v>
+      </c>
+      <c r="I117" s="8">
+        <v>2</v>
       </c>
       <c r="J117" t="s">
         <v>737</v>
@@ -28384,17 +28376,17 @@
       <c r="E118" t="s">
         <v>781</v>
       </c>
-      <c r="F118" t="s">
-        <v>24</v>
-      </c>
-      <c r="G118" t="s">
-        <v>53</v>
-      </c>
-      <c r="H118" t="s">
-        <v>86</v>
-      </c>
-      <c r="I118" t="s">
-        <v>36</v>
+      <c r="F118" s="8">
+        <v>2020</v>
+      </c>
+      <c r="G118" s="8">
+        <v>6</v>
+      </c>
+      <c r="H118" s="8">
+        <v>16</v>
+      </c>
+      <c r="I118" s="8">
+        <v>2</v>
       </c>
       <c r="J118" t="s">
         <v>737</v>
@@ -28437,17 +28429,17 @@
       <c r="E119" t="s">
         <v>781</v>
       </c>
-      <c r="F119" t="s">
-        <v>24</v>
-      </c>
-      <c r="G119" t="s">
-        <v>53</v>
-      </c>
-      <c r="H119" t="s">
-        <v>86</v>
-      </c>
-      <c r="I119" t="s">
-        <v>36</v>
+      <c r="F119" s="8">
+        <v>2020</v>
+      </c>
+      <c r="G119" s="8">
+        <v>6</v>
+      </c>
+      <c r="H119" s="8">
+        <v>16</v>
+      </c>
+      <c r="I119" s="8">
+        <v>2</v>
       </c>
       <c r="J119" t="s">
         <v>737</v>
@@ -28490,17 +28482,17 @@
       <c r="E120" t="s">
         <v>781</v>
       </c>
-      <c r="F120" t="s">
-        <v>24</v>
-      </c>
-      <c r="G120" t="s">
-        <v>53</v>
-      </c>
-      <c r="H120" t="s">
-        <v>86</v>
-      </c>
-      <c r="I120" t="s">
-        <v>36</v>
+      <c r="F120" s="8">
+        <v>2020</v>
+      </c>
+      <c r="G120" s="8">
+        <v>6</v>
+      </c>
+      <c r="H120" s="8">
+        <v>16</v>
+      </c>
+      <c r="I120" s="8">
+        <v>2</v>
       </c>
       <c r="J120" t="s">
         <v>737</v>
@@ -28543,17 +28535,17 @@
       <c r="E121" t="s">
         <v>781</v>
       </c>
-      <c r="F121" t="s">
-        <v>24</v>
-      </c>
-      <c r="G121" t="s">
-        <v>53</v>
-      </c>
-      <c r="H121" t="s">
-        <v>86</v>
-      </c>
-      <c r="I121" t="s">
-        <v>36</v>
+      <c r="F121" s="8">
+        <v>2020</v>
+      </c>
+      <c r="G121" s="8">
+        <v>6</v>
+      </c>
+      <c r="H121" s="8">
+        <v>16</v>
+      </c>
+      <c r="I121" s="8">
+        <v>2</v>
       </c>
       <c r="J121" t="s">
         <v>737</v>
@@ -28599,17 +28591,17 @@
       <c r="E122" s="2" t="s">
         <v>981</v>
       </c>
-      <c r="F122" t="s">
-        <v>24</v>
-      </c>
-      <c r="G122" t="s">
-        <v>25</v>
-      </c>
-      <c r="H122" t="s">
-        <v>112</v>
-      </c>
-      <c r="I122" t="s">
-        <v>27</v>
+      <c r="F122" s="8">
+        <v>2020</v>
+      </c>
+      <c r="G122" s="8">
+        <v>4</v>
+      </c>
+      <c r="H122" s="8">
+        <v>7</v>
+      </c>
+      <c r="I122" s="8">
+        <v>1</v>
       </c>
       <c r="J122" t="s">
         <v>737</v>
@@ -28658,17 +28650,17 @@
       <c r="E123" s="2" t="s">
         <v>981</v>
       </c>
-      <c r="F123" t="s">
-        <v>24</v>
-      </c>
-      <c r="G123" t="s">
-        <v>25</v>
-      </c>
-      <c r="H123" t="s">
-        <v>112</v>
-      </c>
-      <c r="I123" t="s">
-        <v>27</v>
+      <c r="F123" s="8">
+        <v>2020</v>
+      </c>
+      <c r="G123" s="8">
+        <v>4</v>
+      </c>
+      <c r="H123" s="8">
+        <v>7</v>
+      </c>
+      <c r="I123" s="8">
+        <v>1</v>
       </c>
       <c r="J123" t="s">
         <v>737</v>
@@ -28714,17 +28706,17 @@
       <c r="E124" s="2" t="s">
         <v>981</v>
       </c>
-      <c r="F124" t="s">
-        <v>24</v>
-      </c>
-      <c r="G124" t="s">
-        <v>25</v>
-      </c>
-      <c r="H124" t="s">
-        <v>112</v>
-      </c>
-      <c r="I124" t="s">
-        <v>27</v>
+      <c r="F124" s="8">
+        <v>2020</v>
+      </c>
+      <c r="G124" s="8">
+        <v>4</v>
+      </c>
+      <c r="H124" s="8">
+        <v>7</v>
+      </c>
+      <c r="I124" s="8">
+        <v>1</v>
       </c>
       <c r="J124" t="s">
         <v>737</v>
@@ -28770,17 +28762,17 @@
       <c r="E125" s="2" t="s">
         <v>981</v>
       </c>
-      <c r="F125" t="s">
-        <v>24</v>
-      </c>
-      <c r="G125" t="s">
-        <v>25</v>
-      </c>
-      <c r="H125" t="s">
-        <v>112</v>
-      </c>
-      <c r="I125" t="s">
-        <v>27</v>
+      <c r="F125" s="8">
+        <v>2020</v>
+      </c>
+      <c r="G125" s="8">
+        <v>4</v>
+      </c>
+      <c r="H125" s="8">
+        <v>7</v>
+      </c>
+      <c r="I125" s="8">
+        <v>1</v>
       </c>
       <c r="J125" t="s">
         <v>737</v>
@@ -28826,17 +28818,17 @@
       <c r="E126" s="2" t="s">
         <v>981</v>
       </c>
-      <c r="F126" t="s">
-        <v>24</v>
-      </c>
-      <c r="G126" t="s">
-        <v>25</v>
-      </c>
-      <c r="H126" t="s">
-        <v>112</v>
-      </c>
-      <c r="I126" t="s">
-        <v>27</v>
+      <c r="F126" s="8">
+        <v>2020</v>
+      </c>
+      <c r="G126" s="8">
+        <v>4</v>
+      </c>
+      <c r="H126" s="8">
+        <v>7</v>
+      </c>
+      <c r="I126" s="8">
+        <v>1</v>
       </c>
       <c r="J126" t="s">
         <v>737</v>
@@ -28882,17 +28874,17 @@
       <c r="E127" s="2" t="s">
         <v>981</v>
       </c>
-      <c r="F127" t="s">
-        <v>24</v>
-      </c>
-      <c r="G127" t="s">
-        <v>25</v>
-      </c>
-      <c r="H127" t="s">
-        <v>112</v>
-      </c>
-      <c r="I127" t="s">
-        <v>27</v>
+      <c r="F127" s="8">
+        <v>2020</v>
+      </c>
+      <c r="G127" s="8">
+        <v>4</v>
+      </c>
+      <c r="H127" s="8">
+        <v>7</v>
+      </c>
+      <c r="I127" s="8">
+        <v>1</v>
       </c>
       <c r="J127" t="s">
         <v>737</v>
@@ -28935,17 +28927,17 @@
       <c r="E128" t="s">
         <v>782</v>
       </c>
-      <c r="F128" t="s">
-        <v>24</v>
-      </c>
-      <c r="G128" t="s">
-        <v>53</v>
-      </c>
-      <c r="H128" t="s">
-        <v>72</v>
-      </c>
-      <c r="I128" t="s">
-        <v>36</v>
+      <c r="F128" s="8">
+        <v>2020</v>
+      </c>
+      <c r="G128" s="8">
+        <v>6</v>
+      </c>
+      <c r="H128" s="8">
+        <v>17</v>
+      </c>
+      <c r="I128" s="8">
+        <v>2</v>
       </c>
       <c r="J128" t="s">
         <v>737</v>
@@ -28988,17 +28980,17 @@
       <c r="E129" t="s">
         <v>782</v>
       </c>
-      <c r="F129" t="s">
-        <v>24</v>
-      </c>
-      <c r="G129" t="s">
-        <v>53</v>
-      </c>
-      <c r="H129" t="s">
-        <v>72</v>
-      </c>
-      <c r="I129" t="s">
-        <v>36</v>
+      <c r="F129" s="8">
+        <v>2020</v>
+      </c>
+      <c r="G129" s="8">
+        <v>6</v>
+      </c>
+      <c r="H129" s="8">
+        <v>17</v>
+      </c>
+      <c r="I129" s="8">
+        <v>2</v>
       </c>
       <c r="J129" t="s">
         <v>737</v>
@@ -29041,17 +29033,17 @@
       <c r="E130" t="s">
         <v>782</v>
       </c>
-      <c r="F130" t="s">
-        <v>24</v>
-      </c>
-      <c r="G130" t="s">
-        <v>53</v>
-      </c>
-      <c r="H130" t="s">
-        <v>72</v>
-      </c>
-      <c r="I130" t="s">
-        <v>36</v>
+      <c r="F130" s="8">
+        <v>2020</v>
+      </c>
+      <c r="G130" s="8">
+        <v>6</v>
+      </c>
+      <c r="H130" s="8">
+        <v>17</v>
+      </c>
+      <c r="I130" s="8">
+        <v>2</v>
       </c>
       <c r="J130" t="s">
         <v>737</v>
@@ -29094,17 +29086,17 @@
       <c r="E131" t="s">
         <v>782</v>
       </c>
-      <c r="F131" t="s">
-        <v>24</v>
-      </c>
-      <c r="G131" t="s">
-        <v>53</v>
-      </c>
-      <c r="H131" t="s">
-        <v>72</v>
-      </c>
-      <c r="I131" t="s">
-        <v>36</v>
+      <c r="F131" s="8">
+        <v>2020</v>
+      </c>
+      <c r="G131" s="8">
+        <v>6</v>
+      </c>
+      <c r="H131" s="8">
+        <v>17</v>
+      </c>
+      <c r="I131" s="8">
+        <v>2</v>
       </c>
       <c r="J131" t="s">
         <v>737</v>
@@ -29147,17 +29139,17 @@
       <c r="E132" t="s">
         <v>782</v>
       </c>
-      <c r="F132" t="s">
-        <v>24</v>
-      </c>
-      <c r="G132" t="s">
-        <v>53</v>
-      </c>
-      <c r="H132" t="s">
-        <v>72</v>
-      </c>
-      <c r="I132" t="s">
-        <v>36</v>
+      <c r="F132" s="8">
+        <v>2020</v>
+      </c>
+      <c r="G132" s="8">
+        <v>6</v>
+      </c>
+      <c r="H132" s="8">
+        <v>17</v>
+      </c>
+      <c r="I132" s="8">
+        <v>2</v>
       </c>
       <c r="J132" t="s">
         <v>737</v>
@@ -29200,17 +29192,17 @@
       <c r="E133" t="s">
         <v>782</v>
       </c>
-      <c r="F133" t="s">
-        <v>24</v>
-      </c>
-      <c r="G133" t="s">
-        <v>53</v>
-      </c>
-      <c r="H133" t="s">
-        <v>72</v>
-      </c>
-      <c r="I133" t="s">
-        <v>36</v>
+      <c r="F133" s="8">
+        <v>2020</v>
+      </c>
+      <c r="G133" s="8">
+        <v>6</v>
+      </c>
+      <c r="H133" s="8">
+        <v>17</v>
+      </c>
+      <c r="I133" s="8">
+        <v>2</v>
       </c>
       <c r="J133" t="s">
         <v>737</v>
@@ -29253,17 +29245,17 @@
       <c r="E134" t="s">
         <v>764</v>
       </c>
-      <c r="F134" t="s">
-        <v>24</v>
-      </c>
-      <c r="G134" t="s">
-        <v>41</v>
-      </c>
-      <c r="H134" t="s">
-        <v>148</v>
-      </c>
-      <c r="I134" t="s">
-        <v>27</v>
+      <c r="F134" s="8">
+        <v>2020</v>
+      </c>
+      <c r="G134" s="8">
+        <v>3</v>
+      </c>
+      <c r="H134" s="8">
+        <v>20</v>
+      </c>
+      <c r="I134" s="8">
+        <v>1</v>
       </c>
       <c r="J134" t="s">
         <v>765</v>
@@ -29306,17 +29298,17 @@
       <c r="E135" t="s">
         <v>764</v>
       </c>
-      <c r="F135" t="s">
-        <v>24</v>
-      </c>
-      <c r="G135" t="s">
-        <v>41</v>
-      </c>
-      <c r="H135" t="s">
-        <v>148</v>
-      </c>
-      <c r="I135" t="s">
-        <v>27</v>
+      <c r="F135" s="8">
+        <v>2020</v>
+      </c>
+      <c r="G135" s="8">
+        <v>3</v>
+      </c>
+      <c r="H135" s="8">
+        <v>20</v>
+      </c>
+      <c r="I135" s="8">
+        <v>1</v>
       </c>
       <c r="J135" t="s">
         <v>765</v>
@@ -29359,17 +29351,17 @@
       <c r="E136" t="s">
         <v>764</v>
       </c>
-      <c r="F136" t="s">
-        <v>24</v>
-      </c>
-      <c r="G136" t="s">
-        <v>41</v>
-      </c>
-      <c r="H136" t="s">
-        <v>148</v>
-      </c>
-      <c r="I136" t="s">
-        <v>27</v>
+      <c r="F136" s="8">
+        <v>2020</v>
+      </c>
+      <c r="G136" s="8">
+        <v>3</v>
+      </c>
+      <c r="H136" s="8">
+        <v>20</v>
+      </c>
+      <c r="I136" s="8">
+        <v>1</v>
       </c>
       <c r="J136" t="s">
         <v>765</v>
@@ -29412,17 +29404,17 @@
       <c r="E137" t="s">
         <v>764</v>
       </c>
-      <c r="F137" t="s">
-        <v>24</v>
-      </c>
-      <c r="G137" t="s">
-        <v>41</v>
-      </c>
-      <c r="H137" t="s">
-        <v>148</v>
-      </c>
-      <c r="I137" t="s">
-        <v>27</v>
+      <c r="F137" s="8">
+        <v>2020</v>
+      </c>
+      <c r="G137" s="8">
+        <v>3</v>
+      </c>
+      <c r="H137" s="8">
+        <v>20</v>
+      </c>
+      <c r="I137" s="8">
+        <v>1</v>
       </c>
       <c r="J137" t="s">
         <v>765</v>
@@ -29465,17 +29457,17 @@
       <c r="E138" t="s">
         <v>764</v>
       </c>
-      <c r="F138" t="s">
-        <v>24</v>
-      </c>
-      <c r="G138" t="s">
-        <v>41</v>
-      </c>
-      <c r="H138" t="s">
-        <v>148</v>
-      </c>
-      <c r="I138" t="s">
-        <v>27</v>
+      <c r="F138" s="8">
+        <v>2020</v>
+      </c>
+      <c r="G138" s="8">
+        <v>3</v>
+      </c>
+      <c r="H138" s="8">
+        <v>20</v>
+      </c>
+      <c r="I138" s="8">
+        <v>1</v>
       </c>
       <c r="J138" t="s">
         <v>765</v>
@@ -29518,17 +29510,17 @@
       <c r="E139" t="s">
         <v>764</v>
       </c>
-      <c r="F139" t="s">
-        <v>24</v>
-      </c>
-      <c r="G139" t="s">
-        <v>41</v>
-      </c>
-      <c r="H139" t="s">
-        <v>148</v>
-      </c>
-      <c r="I139" t="s">
-        <v>27</v>
+      <c r="F139" s="8">
+        <v>2020</v>
+      </c>
+      <c r="G139" s="8">
+        <v>3</v>
+      </c>
+      <c r="H139" s="8">
+        <v>20</v>
+      </c>
+      <c r="I139" s="8">
+        <v>1</v>
       </c>
       <c r="J139" t="s">
         <v>765</v>
@@ -29574,17 +29566,17 @@
       <c r="E140" s="2" t="s">
         <v>983</v>
       </c>
-      <c r="F140" t="s">
-        <v>24</v>
-      </c>
-      <c r="G140" t="s">
-        <v>49</v>
-      </c>
-      <c r="H140" t="s">
-        <v>148</v>
-      </c>
-      <c r="I140" t="s">
-        <v>36</v>
+      <c r="F140" s="8">
+        <v>2020</v>
+      </c>
+      <c r="G140" s="8">
+        <v>5</v>
+      </c>
+      <c r="H140" s="8">
+        <v>20</v>
+      </c>
+      <c r="I140" s="8">
+        <v>2</v>
       </c>
       <c r="J140" t="s">
         <v>765</v>
@@ -29630,17 +29622,17 @@
       <c r="E141" s="2" t="s">
         <v>983</v>
       </c>
-      <c r="F141" t="s">
-        <v>24</v>
-      </c>
-      <c r="G141" t="s">
-        <v>49</v>
-      </c>
-      <c r="H141" t="s">
-        <v>148</v>
-      </c>
-      <c r="I141" t="s">
-        <v>36</v>
+      <c r="F141" s="8">
+        <v>2020</v>
+      </c>
+      <c r="G141" s="8">
+        <v>5</v>
+      </c>
+      <c r="H141" s="8">
+        <v>20</v>
+      </c>
+      <c r="I141" s="8">
+        <v>2</v>
       </c>
       <c r="J141" t="s">
         <v>765</v>
@@ -29686,17 +29678,17 @@
       <c r="E142" s="2" t="s">
         <v>983</v>
       </c>
-      <c r="F142" t="s">
-        <v>24</v>
-      </c>
-      <c r="G142" t="s">
-        <v>49</v>
-      </c>
-      <c r="H142" t="s">
-        <v>148</v>
-      </c>
-      <c r="I142" t="s">
-        <v>36</v>
+      <c r="F142" s="8">
+        <v>2020</v>
+      </c>
+      <c r="G142" s="8">
+        <v>5</v>
+      </c>
+      <c r="H142" s="8">
+        <v>20</v>
+      </c>
+      <c r="I142" s="8">
+        <v>2</v>
       </c>
       <c r="J142" t="s">
         <v>765</v>
@@ -29742,17 +29734,17 @@
       <c r="E143" s="2" t="s">
         <v>983</v>
       </c>
-      <c r="F143" t="s">
-        <v>24</v>
-      </c>
-      <c r="G143" t="s">
-        <v>49</v>
-      </c>
-      <c r="H143" t="s">
-        <v>148</v>
-      </c>
-      <c r="I143" t="s">
-        <v>36</v>
+      <c r="F143" s="8">
+        <v>2020</v>
+      </c>
+      <c r="G143" s="8">
+        <v>5</v>
+      </c>
+      <c r="H143" s="8">
+        <v>20</v>
+      </c>
+      <c r="I143" s="8">
+        <v>2</v>
       </c>
       <c r="J143" t="s">
         <v>765</v>
@@ -29798,17 +29790,17 @@
       <c r="E144" s="2" t="s">
         <v>983</v>
       </c>
-      <c r="F144" t="s">
-        <v>24</v>
-      </c>
-      <c r="G144" t="s">
-        <v>49</v>
-      </c>
-      <c r="H144" t="s">
-        <v>148</v>
-      </c>
-      <c r="I144" t="s">
-        <v>36</v>
+      <c r="F144" s="8">
+        <v>2020</v>
+      </c>
+      <c r="G144" s="8">
+        <v>5</v>
+      </c>
+      <c r="H144" s="8">
+        <v>20</v>
+      </c>
+      <c r="I144" s="8">
+        <v>2</v>
       </c>
       <c r="J144" t="s">
         <v>765</v>
@@ -29854,17 +29846,17 @@
       <c r="E145" s="2" t="s">
         <v>983</v>
       </c>
-      <c r="F145" t="s">
-        <v>24</v>
-      </c>
-      <c r="G145" t="s">
-        <v>49</v>
-      </c>
-      <c r="H145" t="s">
-        <v>148</v>
-      </c>
-      <c r="I145" t="s">
-        <v>36</v>
+      <c r="F145" s="8">
+        <v>2020</v>
+      </c>
+      <c r="G145" s="8">
+        <v>5</v>
+      </c>
+      <c r="H145" s="8">
+        <v>20</v>
+      </c>
+      <c r="I145" s="8">
+        <v>2</v>
       </c>
       <c r="J145" t="s">
         <v>765</v>
@@ -29898,6 +29890,7 @@
   <autoFilter ref="A1:T145"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
